--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.318579024535325</v>
+        <v>1.318579024535211</v>
       </c>
       <c r="C2">
-        <v>0.2472260103244537</v>
+        <v>0.2472260103242405</v>
       </c>
       <c r="D2">
-        <v>0.03241523524072676</v>
+        <v>0.03241523524071965</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.097426593553323</v>
+        <v>2.097426593553337</v>
       </c>
       <c r="G2">
-        <v>1.682238152954014</v>
+        <v>1.682238152954</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3395838018762163</v>
+        <v>0.3395838018762092</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.785259051214808</v>
+        <v>2.785259051214837</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.139054363462094</v>
+        <v>1.139054363462122</v>
       </c>
       <c r="C3">
-        <v>0.2183482820363878</v>
+        <v>0.2183482820367004</v>
       </c>
       <c r="D3">
-        <v>0.03221901858143994</v>
+        <v>0.03221901858154652</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.86564211391584</v>
       </c>
       <c r="G3">
-        <v>1.502339975147308</v>
+        <v>1.502339975147294</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.294050376874452</v>
+        <v>0.2940503768744378</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.363776296542895</v>
+        <v>2.363776296542852</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029926419274318</v>
+        <v>1.029926419274233</v>
       </c>
       <c r="C4">
-        <v>0.2006715289409868</v>
+        <v>0.2006715289411005</v>
       </c>
       <c r="D4">
-        <v>0.03212916771511232</v>
+        <v>0.03212916771517982</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.727336365183305</v>
       </c>
       <c r="G4">
-        <v>1.395148618515151</v>
+        <v>1.395148618515165</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2663280636322582</v>
+        <v>0.2663280636322725</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.115276829233153</v>
+        <v>2.11527682923311</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9856873215387054</v>
+        <v>0.9856873215387623</v>
       </c>
       <c r="C5">
-        <v>0.1934760572600993</v>
+        <v>0.1934760572599146</v>
       </c>
       <c r="D5">
-        <v>0.03209911472555405</v>
+        <v>0.03209911472564286</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.671860301290309</v>
+        <v>1.671860301290295</v>
       </c>
       <c r="G5">
         <v>1.352187968100253</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.01613856839765</v>
+        <v>2.016138568397636</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9783541678105507</v>
+        <v>0.9783541678104939</v>
       </c>
       <c r="C6">
-        <v>0.1922815732996099</v>
+        <v>0.192281573299681</v>
       </c>
       <c r="D6">
-        <v>0.03209449024075184</v>
+        <v>0.03209449024086908</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.662698588773551</v>
+        <v>1.662698588773537</v>
       </c>
       <c r="G6">
-        <v>1.345095162008292</v>
+        <v>1.345095162008278</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2532140100220843</v>
+        <v>0.2532140100220701</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.999793109926458</v>
+        <v>1.9997931099265</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029328915839329</v>
+        <v>1.029328915839216</v>
       </c>
       <c r="C7">
-        <v>0.200574463449172</v>
+        <v>0.2005744634491577</v>
       </c>
       <c r="D7">
-        <v>0.03212873723965615</v>
+        <v>0.03212873723956733</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.726584768273923</v>
+        <v>1.726584768273938</v>
       </c>
       <c r="G7">
-        <v>1.394566443749611</v>
+        <v>1.394566443749582</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.266176176764958</v>
+        <v>0.2661761767649011</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.113931758922817</v>
+        <v>2.113931758922845</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.256421957700894</v>
+        <v>1.25642195770078</v>
       </c>
       <c r="C8">
-        <v>0.2372541823283854</v>
+        <v>0.2372541823281296</v>
       </c>
       <c r="D8">
-        <v>0.03234048787402344</v>
+        <v>0.0323404878741087</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.016596045775685</v>
+        <v>2.0165960457757</v>
       </c>
       <c r="G8">
-        <v>1.619467096618962</v>
+        <v>1.619467096618948</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3238281862085302</v>
+        <v>0.3238281862085373</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.637493349330853</v>
+        <v>2.637493349330867</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.712739874200082</v>
+        <v>1.71273987419994</v>
       </c>
       <c r="C9">
-        <v>0.309884146665695</v>
+        <v>0.3098841466656665</v>
       </c>
       <c r="D9">
-        <v>0.03305975451397813</v>
+        <v>0.03305975451382537</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.623530515249939</v>
+        <v>2.623530515249996</v>
       </c>
       <c r="G9">
-        <v>2.091629445790332</v>
+        <v>2.091629445790346</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4392897801476963</v>
+        <v>0.4392897801477034</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0.3640550006636118</v>
       </c>
       <c r="D10">
-        <v>0.03387862594556523</v>
+        <v>0.03387862594544799</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.103256642546569</v>
+        <v>3.10325664254654</v>
       </c>
       <c r="G10">
         <v>2.466084754746177</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5264030825689261</v>
+        <v>0.5264030825689332</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.717661834781765</v>
+        <v>4.717661834781779</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>2.218367959792971</v>
       </c>
       <c r="C11">
-        <v>0.3889524411305274</v>
+        <v>0.3889524411308116</v>
       </c>
       <c r="D11">
-        <v>0.03434580345195215</v>
+        <v>0.03434580345216887</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.331787169679558</v>
+        <v>3.331787169679586</v>
       </c>
       <c r="G11">
-        <v>2.644833391794378</v>
+        <v>2.644833391794393</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5667260411811768</v>
+        <v>0.5667260411811554</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.187867992469904</v>
+        <v>5.187867992469933</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.279554418881219</v>
+        <v>2.279554418881162</v>
       </c>
       <c r="C12">
-        <v>0.3984220524255875</v>
+        <v>0.3984220524253601</v>
       </c>
       <c r="D12">
-        <v>0.03453988203894554</v>
+        <v>0.03453988203889224</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.420119154401277</v>
+        <v>3.420119154401306</v>
       </c>
       <c r="G12">
-        <v>2.713986375579324</v>
+        <v>2.713986375579381</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5821124276372416</v>
+        <v>0.5821124276372487</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.373519874370118</v>
+        <v>5.373519874370132</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.266352418126701</v>
+        <v>2.266352418126758</v>
       </c>
       <c r="C13">
-        <v>0.3963807034533033</v>
+        <v>0.3963807034536444</v>
       </c>
       <c r="D13">
-        <v>0.03449725247164181</v>
+        <v>0.03449725247179103</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.401009815043693</v>
+        <v>3.401009815043665</v>
       </c>
       <c r="G13">
-        <v>2.699023164461551</v>
+        <v>2.699023164461565</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5787932160561198</v>
+        <v>0.5787932160561411</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.333161647882292</v>
+        <v>5.33316164788225</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>2.223390929862347</v>
       </c>
       <c r="C14">
-        <v>0.3897306601141679</v>
+        <v>0.3897306601136279</v>
       </c>
       <c r="D14">
-        <v>0.03436140233000629</v>
+        <v>0.03436140232998852</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.339016329580915</v>
+        <v>3.339016329580943</v>
       </c>
       <c r="G14">
-        <v>2.65049161145248</v>
+        <v>2.650491611452509</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.202976405642616</v>
+        <v>5.20297640564263</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.197145835345196</v>
+        <v>2.19714583534514</v>
       </c>
       <c r="C15">
         <v>0.3856628282393331</v>
       </c>
       <c r="D15">
-        <v>0.034280548703439</v>
+        <v>0.03428054870343189</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.301287420794324</v>
+        <v>3.301287420794353</v>
       </c>
       <c r="G15">
-        <v>2.620964003360129</v>
+        <v>2.6209640033601</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5613875695450048</v>
+        <v>0.5613875695449764</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.124289807271808</v>
+        <v>5.124289807271779</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047759282167817</v>
+        <v>2.047759282167704</v>
       </c>
       <c r="C16">
-        <v>0.3624334793062474</v>
+        <v>0.3624334793062758</v>
       </c>
       <c r="D16">
-        <v>0.03385028198957585</v>
+        <v>0.03385028198956874</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.088553953365533</v>
+        <v>3.088553953365505</v>
       </c>
       <c r="G16">
-        <v>2.454592851205476</v>
+        <v>2.454592851205462</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5237833064417003</v>
+        <v>0.5237833064416648</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.956955898637204</v>
+        <v>1.956955898637062</v>
       </c>
       <c r="C17">
-        <v>0.3482522878778838</v>
+        <v>0.3482522878778695</v>
       </c>
       <c r="D17">
-        <v>0.03361281539144656</v>
+        <v>0.03361281539158156</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.960887728719769</v>
+        <v>2.960887728719712</v>
       </c>
       <c r="G17">
-        <v>2.354847477658026</v>
+        <v>2.354847477657998</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5009041690524825</v>
+        <v>0.5009041690524612</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.43150646217282</v>
+        <v>4.431506462172791</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.905012441439936</v>
+        <v>1.90501244144005</v>
       </c>
       <c r="C18">
-        <v>0.3401194073732654</v>
+        <v>0.3401194073730522</v>
       </c>
       <c r="D18">
-        <v>0.03348488214427192</v>
+        <v>0.03348488214404455</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.888405000911945</v>
+        <v>2.888405000911888</v>
       </c>
       <c r="G18">
         <v>2.298249734251854</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4878090042394874</v>
+        <v>0.48780900423953</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.28765963568631</v>
+        <v>4.287659635686268</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.887471835239609</v>
+        <v>1.887471835239836</v>
       </c>
       <c r="C19">
-        <v>0.3373696594984921</v>
+        <v>0.3373696594985063</v>
       </c>
       <c r="D19">
-        <v>0.03344295872421554</v>
+        <v>0.03344295872409475</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4833857422985446</v>
+        <v>0.4833857422985659</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.239529075446882</v>
+        <v>4.23952907544691</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966592112668337</v>
+        <v>1.966592112668479</v>
       </c>
       <c r="C20">
-        <v>0.3497593992150456</v>
+        <v>0.3497593992147614</v>
       </c>
       <c r="D20">
-        <v>0.0336371760247296</v>
+        <v>0.03363717602483618</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.974377916781123</v>
+        <v>2.974377916781151</v>
       </c>
       <c r="G20">
-        <v>2.365383852713464</v>
+        <v>2.365383852713478</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5033329147319066</v>
+        <v>0.5033329147318995</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.458412488525909</v>
+        <v>4.458412488525866</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.235995013973621</v>
+        <v>2.235995013973593</v>
       </c>
       <c r="C21">
-        <v>0.3916827850489142</v>
+        <v>0.3916827850483742</v>
       </c>
       <c r="D21">
-        <v>0.03440080545544433</v>
+        <v>0.03440080545555801</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3.357173830099185</v>
       </c>
       <c r="G21">
-        <v>2.664704410959075</v>
+        <v>2.664704410959089</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5711594620423739</v>
+        <v>0.5711594620423881</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.240990657497065</v>
+        <v>5.240990657497079</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.415133341015292</v>
+        <v>2.415133341015348</v>
       </c>
       <c r="C22">
-        <v>0.4193242976452893</v>
+        <v>0.4193242976455167</v>
       </c>
       <c r="D22">
-        <v>0.03500242564146916</v>
+        <v>0.03500242564167522</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.618003497953708</v>
+        <v>3.618003497953737</v>
       </c>
       <c r="G22">
         <v>2.869032766169511</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6161778072048136</v>
+        <v>0.6161778072048065</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.798138867392154</v>
+        <v>5.798138867392225</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>2.31921605215183</v>
       </c>
       <c r="C23">
-        <v>0.404548400225309</v>
+        <v>0.4045484002255364</v>
       </c>
       <c r="D23">
-        <v>0.03467048400382922</v>
+        <v>0.03467048400392159</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.477695975309757</v>
+        <v>3.477695975309786</v>
       </c>
       <c r="G23">
         <v>2.759080756054075</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5920818432990416</v>
+        <v>0.5920818432990487</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.495789738577415</v>
+        <v>5.495789738577429</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.962234774341852</v>
+        <v>1.962234774341965</v>
       </c>
       <c r="C24">
-        <v>0.3490779720522568</v>
+        <v>0.3490779720526973</v>
       </c>
       <c r="D24">
-        <v>0.03362613608209131</v>
+        <v>0.0336261360820842</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.968276177443471</v>
+        <v>2.968276177443499</v>
       </c>
       <c r="G24">
         <v>2.3606180486548</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.587779052113632</v>
+        <v>1.587779052113746</v>
       </c>
       <c r="C25">
-        <v>0.2901214006678146</v>
+        <v>0.2901214006680561</v>
       </c>
       <c r="D25">
-        <v>0.03282306957613912</v>
+        <v>0.03282306957627412</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.454262991872895</v>
+        <v>2.454262991872866</v>
       </c>
       <c r="G25">
-        <v>1.959762253282619</v>
+        <v>1.959762253282605</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.449194382980281</v>
+        <v>3.44919438298021</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.318579024535211</v>
+        <v>1.318579024535325</v>
       </c>
       <c r="C2">
-        <v>0.2472260103242405</v>
+        <v>0.2472260103244537</v>
       </c>
       <c r="D2">
-        <v>0.03241523524071965</v>
+        <v>0.03241523524072676</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.097426593553337</v>
+        <v>2.097426593553323</v>
       </c>
       <c r="G2">
-        <v>1.682238152954</v>
+        <v>1.682238152954014</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3395838018762092</v>
+        <v>0.3395838018762163</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>2.785259051214837</v>
+        <v>2.785259051214808</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.139054363462122</v>
+        <v>1.139054363462094</v>
       </c>
       <c r="C3">
-        <v>0.2183482820367004</v>
+        <v>0.2183482820363878</v>
       </c>
       <c r="D3">
-        <v>0.03221901858154652</v>
+        <v>0.03221901858143994</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>1.86564211391584</v>
       </c>
       <c r="G3">
-        <v>1.502339975147294</v>
+        <v>1.502339975147308</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2940503768744378</v>
+        <v>0.294050376874452</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>2.363776296542852</v>
+        <v>2.363776296542895</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029926419274233</v>
+        <v>1.029926419274318</v>
       </c>
       <c r="C4">
-        <v>0.2006715289411005</v>
+        <v>0.2006715289409868</v>
       </c>
       <c r="D4">
-        <v>0.03212916771517982</v>
+        <v>0.03212916771511232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -503,7 +503,7 @@
         <v>1.727336365183305</v>
       </c>
       <c r="G4">
-        <v>1.395148618515165</v>
+        <v>1.395148618515151</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2663280636322725</v>
+        <v>0.2663280636322582</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>2.11527682923311</v>
+        <v>2.115276829233153</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9856873215387623</v>
+        <v>0.9856873215387054</v>
       </c>
       <c r="C5">
-        <v>0.1934760572599146</v>
+        <v>0.1934760572600993</v>
       </c>
       <c r="D5">
-        <v>0.03209911472564286</v>
+        <v>0.03209911472555405</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.671860301290295</v>
+        <v>1.671860301290309</v>
       </c>
       <c r="G5">
         <v>1.352187968100253</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>2.016138568397636</v>
+        <v>2.01613856839765</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9783541678104939</v>
+        <v>0.9783541678105507</v>
       </c>
       <c r="C6">
-        <v>0.192281573299681</v>
+        <v>0.1922815732996099</v>
       </c>
       <c r="D6">
-        <v>0.03209449024086908</v>
+        <v>0.03209449024075184</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.662698588773537</v>
+        <v>1.662698588773551</v>
       </c>
       <c r="G6">
-        <v>1.345095162008278</v>
+        <v>1.345095162008292</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,13 +588,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2532140100220701</v>
+        <v>0.2532140100220843</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.9997931099265</v>
+        <v>1.999793109926458</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029328915839216</v>
+        <v>1.029328915839329</v>
       </c>
       <c r="C7">
-        <v>0.2005744634491577</v>
+        <v>0.200574463449172</v>
       </c>
       <c r="D7">
-        <v>0.03212873723956733</v>
+        <v>0.03212873723965615</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.726584768273938</v>
+        <v>1.726584768273923</v>
       </c>
       <c r="G7">
-        <v>1.394566443749582</v>
+        <v>1.394566443749611</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2661761767649011</v>
+        <v>0.266176176764958</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>2.113931758922845</v>
+        <v>2.113931758922817</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.25642195770078</v>
+        <v>1.256421957700894</v>
       </c>
       <c r="C8">
-        <v>0.2372541823281296</v>
+        <v>0.2372541823283854</v>
       </c>
       <c r="D8">
-        <v>0.0323404878741087</v>
+        <v>0.03234048787402344</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.0165960457757</v>
+        <v>2.016596045775685</v>
       </c>
       <c r="G8">
-        <v>1.619467096618948</v>
+        <v>1.619467096618962</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3238281862085373</v>
+        <v>0.3238281862085302</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>2.637493349330867</v>
+        <v>2.637493349330853</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.71273987419994</v>
+        <v>1.712739874200082</v>
       </c>
       <c r="C9">
-        <v>0.3098841466656665</v>
+        <v>0.309884146665695</v>
       </c>
       <c r="D9">
-        <v>0.03305975451382537</v>
+        <v>0.03305975451397813</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.623530515249996</v>
+        <v>2.623530515249939</v>
       </c>
       <c r="G9">
-        <v>2.091629445790346</v>
+        <v>2.091629445790332</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4392897801477034</v>
+        <v>0.4392897801476963</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -722,13 +722,13 @@
         <v>0.3640550006636118</v>
       </c>
       <c r="D10">
-        <v>0.03387862594544799</v>
+        <v>0.03387862594556523</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.10325664254654</v>
+        <v>3.103256642546569</v>
       </c>
       <c r="G10">
         <v>2.466084754746177</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5264030825689332</v>
+        <v>0.5264030825689261</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>4.717661834781779</v>
+        <v>4.717661834781765</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,19 +757,19 @@
         <v>2.218367959792971</v>
       </c>
       <c r="C11">
-        <v>0.3889524411308116</v>
+        <v>0.3889524411305274</v>
       </c>
       <c r="D11">
-        <v>0.03434580345216887</v>
+        <v>0.03434580345195215</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.331787169679586</v>
+        <v>3.331787169679558</v>
       </c>
       <c r="G11">
-        <v>2.644833391794393</v>
+        <v>2.644833391794378</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5667260411811554</v>
+        <v>0.5667260411811768</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.187867992469933</v>
+        <v>5.187867992469904</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,22 +792,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.279554418881162</v>
+        <v>2.279554418881219</v>
       </c>
       <c r="C12">
-        <v>0.3984220524253601</v>
+        <v>0.3984220524255875</v>
       </c>
       <c r="D12">
-        <v>0.03453988203889224</v>
+        <v>0.03453988203894554</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.420119154401306</v>
+        <v>3.420119154401277</v>
       </c>
       <c r="G12">
-        <v>2.713986375579381</v>
+        <v>2.713986375579324</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5821124276372487</v>
+        <v>0.5821124276372416</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.373519874370132</v>
+        <v>5.373519874370118</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.266352418126758</v>
+        <v>2.266352418126701</v>
       </c>
       <c r="C13">
-        <v>0.3963807034536444</v>
+        <v>0.3963807034533033</v>
       </c>
       <c r="D13">
-        <v>0.03449725247179103</v>
+        <v>0.03449725247164181</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.401009815043665</v>
+        <v>3.401009815043693</v>
       </c>
       <c r="G13">
-        <v>2.699023164461565</v>
+        <v>2.699023164461551</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5787932160561411</v>
+        <v>0.5787932160561198</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.33316164788225</v>
+        <v>5.333161647882292</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,19 +871,19 @@
         <v>2.223390929862347</v>
       </c>
       <c r="C14">
-        <v>0.3897306601136279</v>
+        <v>0.3897306601141679</v>
       </c>
       <c r="D14">
-        <v>0.03436140232998852</v>
+        <v>0.03436140233000629</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.339016329580943</v>
+        <v>3.339016329580915</v>
       </c>
       <c r="G14">
-        <v>2.650491611452509</v>
+        <v>2.65049161145248</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.20297640564263</v>
+        <v>5.202976405642616</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.19714583534514</v>
+        <v>2.197145835345196</v>
       </c>
       <c r="C15">
         <v>0.3856628282393331</v>
       </c>
       <c r="D15">
-        <v>0.03428054870343189</v>
+        <v>0.034280548703439</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.301287420794353</v>
+        <v>3.301287420794324</v>
       </c>
       <c r="G15">
-        <v>2.6209640033601</v>
+        <v>2.620964003360129</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5613875695449764</v>
+        <v>0.5613875695450048</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.124289807271779</v>
+        <v>5.124289807271808</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047759282167704</v>
+        <v>2.047759282167817</v>
       </c>
       <c r="C16">
-        <v>0.3624334793062758</v>
+        <v>0.3624334793062474</v>
       </c>
       <c r="D16">
-        <v>0.03385028198956874</v>
+        <v>0.03385028198957585</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.088553953365505</v>
+        <v>3.088553953365533</v>
       </c>
       <c r="G16">
-        <v>2.454592851205462</v>
+        <v>2.454592851205476</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5237833064416648</v>
+        <v>0.5237833064417003</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.956955898637062</v>
+        <v>1.956955898637204</v>
       </c>
       <c r="C17">
-        <v>0.3482522878778695</v>
+        <v>0.3482522878778838</v>
       </c>
       <c r="D17">
-        <v>0.03361281539158156</v>
+        <v>0.03361281539144656</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.960887728719712</v>
+        <v>2.960887728719769</v>
       </c>
       <c r="G17">
-        <v>2.354847477657998</v>
+        <v>2.354847477658026</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5009041690524612</v>
+        <v>0.5009041690524825</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>4.431506462172791</v>
+        <v>4.43150646217282</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.90501244144005</v>
+        <v>1.905012441439936</v>
       </c>
       <c r="C18">
-        <v>0.3401194073730522</v>
+        <v>0.3401194073732654</v>
       </c>
       <c r="D18">
-        <v>0.03348488214404455</v>
+        <v>0.03348488214427192</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.888405000911888</v>
+        <v>2.888405000911945</v>
       </c>
       <c r="G18">
         <v>2.298249734251854</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.48780900423953</v>
+        <v>0.4878090042394874</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>4.287659635686268</v>
+        <v>4.28765963568631</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,13 +1058,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.887471835239836</v>
+        <v>1.887471835239609</v>
       </c>
       <c r="C19">
-        <v>0.3373696594985063</v>
+        <v>0.3373696594984921</v>
       </c>
       <c r="D19">
-        <v>0.03344295872409475</v>
+        <v>0.03344295872421554</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4833857422985659</v>
+        <v>0.4833857422985446</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>4.23952907544691</v>
+        <v>4.239529075446882</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966592112668479</v>
+        <v>1.966592112668337</v>
       </c>
       <c r="C20">
-        <v>0.3497593992147614</v>
+        <v>0.3497593992150456</v>
       </c>
       <c r="D20">
-        <v>0.03363717602483618</v>
+        <v>0.0336371760247296</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.974377916781151</v>
+        <v>2.974377916781123</v>
       </c>
       <c r="G20">
-        <v>2.365383852713478</v>
+        <v>2.365383852713464</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5033329147318995</v>
+        <v>0.5033329147319066</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>4.458412488525866</v>
+        <v>4.458412488525909</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.235995013973593</v>
+        <v>2.235995013973621</v>
       </c>
       <c r="C21">
-        <v>0.3916827850483742</v>
+        <v>0.3916827850489142</v>
       </c>
       <c r="D21">
-        <v>0.03440080545555801</v>
+        <v>0.03440080545544433</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1149,7 +1149,7 @@
         <v>3.357173830099185</v>
       </c>
       <c r="G21">
-        <v>2.664704410959089</v>
+        <v>2.664704410959075</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5711594620423881</v>
+        <v>0.5711594620423739</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.240990657497079</v>
+        <v>5.240990657497065</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.415133341015348</v>
+        <v>2.415133341015292</v>
       </c>
       <c r="C22">
-        <v>0.4193242976455167</v>
+        <v>0.4193242976452893</v>
       </c>
       <c r="D22">
-        <v>0.03500242564167522</v>
+        <v>0.03500242564146916</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.618003497953737</v>
+        <v>3.618003497953708</v>
       </c>
       <c r="G22">
         <v>2.869032766169511</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6161778072048065</v>
+        <v>0.6161778072048136</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.798138867392225</v>
+        <v>5.798138867392154</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,16 +1213,16 @@
         <v>2.31921605215183</v>
       </c>
       <c r="C23">
-        <v>0.4045484002255364</v>
+        <v>0.404548400225309</v>
       </c>
       <c r="D23">
-        <v>0.03467048400392159</v>
+        <v>0.03467048400382922</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.477695975309786</v>
+        <v>3.477695975309757</v>
       </c>
       <c r="G23">
         <v>2.759080756054075</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5920818432990487</v>
+        <v>0.5920818432990416</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.495789738577429</v>
+        <v>5.495789738577415</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.962234774341965</v>
+        <v>1.962234774341852</v>
       </c>
       <c r="C24">
-        <v>0.3490779720526973</v>
+        <v>0.3490779720522568</v>
       </c>
       <c r="D24">
-        <v>0.0336261360820842</v>
+        <v>0.03362613608209131</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.968276177443499</v>
+        <v>2.968276177443471</v>
       </c>
       <c r="G24">
         <v>2.3606180486548</v>
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.587779052113746</v>
+        <v>1.587779052113632</v>
       </c>
       <c r="C25">
-        <v>0.2901214006680561</v>
+        <v>0.2901214006678146</v>
       </c>
       <c r="D25">
-        <v>0.03282306957627412</v>
+        <v>0.03282306957613912</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.454262991872866</v>
+        <v>2.454262991872895</v>
       </c>
       <c r="G25">
-        <v>1.959762253282605</v>
+        <v>1.959762253282619</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>3.44919438298021</v>
+        <v>3.449194382980281</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.318579024535325</v>
+        <v>1.318493080853557</v>
       </c>
       <c r="C2">
-        <v>0.2472260103244537</v>
+        <v>0.2471797182691233</v>
       </c>
       <c r="D2">
-        <v>0.03241523524072676</v>
+        <v>0.03226791739197665</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.097426593553323</v>
+        <v>2.093081624165052</v>
       </c>
       <c r="G2">
-        <v>1.682238152954014</v>
+        <v>0.5379798043802566</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.14374473002006</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3395838018762163</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3395535411581037</v>
       </c>
       <c r="L2">
-        <v>2.785259051214808</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>2.785219587974993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.139054363462094</v>
+        <v>1.13900494044637</v>
       </c>
       <c r="C3">
-        <v>0.2183482820363878</v>
+        <v>0.2183196619329379</v>
       </c>
       <c r="D3">
-        <v>0.03221901858143994</v>
+        <v>0.03208578197469336</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.86564211391584</v>
+        <v>1.861818595080109</v>
       </c>
       <c r="G3">
-        <v>1.502339975147308</v>
+        <v>0.4756419784947923</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1.026821538100592</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.294050376874452</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2940324976943458</v>
       </c>
       <c r="L3">
-        <v>2.363776296542895</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.363755472399376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029926419274318</v>
+        <v>1.029896199500172</v>
       </c>
       <c r="C4">
-        <v>0.2006715289409868</v>
+        <v>0.2006530967557438</v>
       </c>
       <c r="D4">
-        <v>0.03212916771511232</v>
+        <v>0.03200433355513965</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.727336365183305</v>
+        <v>1.723826805105773</v>
       </c>
       <c r="G4">
-        <v>1.395148618515151</v>
+        <v>0.4384323816717881</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.9572234704488949</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2663280636322582</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2663169093882658</v>
       </c>
       <c r="L4">
-        <v>2.115276829233153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.115264760536164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9856873215387054</v>
+        <v>0.9856642194699532</v>
       </c>
       <c r="C5">
-        <v>0.1934760572600993</v>
+        <v>0.1934616358616807</v>
       </c>
       <c r="D5">
-        <v>0.03209911472555405</v>
+        <v>0.03197765289478482</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.671860301290309</v>
+        <v>1.668477399346585</v>
       </c>
       <c r="G5">
-        <v>1.352187968100253</v>
+        <v>0.4235029107297947</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.9293470880551098</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2550792560749002</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2550706504149147</v>
       </c>
       <c r="L5">
-        <v>2.01613856839765</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.016129544079021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9783541678105507</v>
+        <v>0.9783322076622767</v>
       </c>
       <c r="C6">
-        <v>0.1922815732996099</v>
+        <v>0.1922678100870172</v>
       </c>
       <c r="D6">
-        <v>0.03209449024075184</v>
+        <v>0.03197358551489415</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.662698588773551</v>
+        <v>1.659336648409322</v>
       </c>
       <c r="G6">
-        <v>1.345095162008292</v>
+        <v>0.4210370638272707</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.9247457475400438</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2532140100220843</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2532058167468989</v>
       </c>
       <c r="L6">
-        <v>1.999793109926458</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>1.999784563285942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029328915839329</v>
+        <v>1.029298794795722</v>
       </c>
       <c r="C7">
-        <v>0.200574463449172</v>
+        <v>0.2005560858930409</v>
       </c>
       <c r="D7">
-        <v>0.03212873723965615</v>
+        <v>0.03200394875747392</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.726584768273923</v>
+        <v>1.723076921199635</v>
       </c>
       <c r="G7">
-        <v>1.394566443749611</v>
+        <v>0.438230133997962</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.9568456369121634</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.266176176764958</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2661650576331596</v>
       </c>
       <c r="L7">
-        <v>2.113931758922817</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.113919733228002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.256421957700894</v>
+        <v>1.256349339817206</v>
       </c>
       <c r="C8">
-        <v>0.2372541823283854</v>
+        <v>0.2372141374658412</v>
       </c>
       <c r="D8">
-        <v>0.03234048787402344</v>
+        <v>0.03219808185860273</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.016596045775685</v>
+        <v>2.012432341935138</v>
       </c>
       <c r="G8">
-        <v>1.619467096618962</v>
+        <v>0.5162426058817289</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.102932339743546</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3238281862085302</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3238023950348676</v>
       </c>
       <c r="L8">
-        <v>2.637493349330853</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.637460975621067</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.712739874200082</v>
+        <v>1.712553089294317</v>
       </c>
       <c r="C9">
-        <v>0.309884146665695</v>
+        <v>0.3097950367250917</v>
       </c>
       <c r="D9">
-        <v>0.03305975451397813</v>
+        <v>0.03288036758145907</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.623530515249939</v>
+        <v>2.618016566221968</v>
       </c>
       <c r="G9">
-        <v>2.091629445790332</v>
+        <v>0.679460130182818</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.410228287541116</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.4392897801476963</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4392267748067198</v>
       </c>
       <c r="L9">
-        <v>3.771678380765962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.771575104565017</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.058160855958363</v>
+        <v>2.057862763728366</v>
       </c>
       <c r="C10">
-        <v>0.3640550006636118</v>
+        <v>0.3639237166843117</v>
       </c>
       <c r="D10">
-        <v>0.03387862594556523</v>
+        <v>0.03366973561270115</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.103256642546569</v>
+        <v>3.096686513533626</v>
       </c>
       <c r="G10">
-        <v>2.466084754746177</v>
+        <v>0.8085417502405647</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.654314136015103</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.5264030825689261</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5263051789223994</v>
       </c>
       <c r="L10">
-        <v>4.717661834781765</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.717466929571259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.218367959792971</v>
+        <v>2.218010884441526</v>
       </c>
       <c r="C11">
-        <v>0.3889524411305274</v>
+        <v>0.3888000721939591</v>
       </c>
       <c r="D11">
-        <v>0.03434580345195215</v>
+        <v>0.0341227330810483</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.331787169679558</v>
+        <v>3.324715281390127</v>
       </c>
       <c r="G11">
-        <v>2.644833391794378</v>
+        <v>0.8700793941358569</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.770914141980256</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.5667260411811768</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.5666099586785336</v>
       </c>
       <c r="L11">
-        <v>5.187867992469904</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>5.187614613122889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.279554418881219</v>
+        <v>2.279173560634007</v>
       </c>
       <c r="C12">
-        <v>0.3984220524255875</v>
+        <v>0.3982613692932091</v>
       </c>
       <c r="D12">
-        <v>0.03453988203894554</v>
+        <v>0.03431130487568979</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.420119154401277</v>
+        <v>3.412853391207193</v>
       </c>
       <c r="G12">
-        <v>2.713986375579324</v>
+        <v>0.8938750253064995</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.816035582496639</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5821124276372416</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.5819890623396731</v>
       </c>
       <c r="L12">
-        <v>5.373519874370118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>5.373240765272215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.266352418126701</v>
+        <v>2.265976750763798</v>
       </c>
       <c r="C13">
-        <v>0.3963807034533033</v>
+        <v>0.3962218265929209</v>
       </c>
       <c r="D13">
-        <v>0.03449725247164181</v>
+        <v>0.03426986792635489</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.401009815043693</v>
+        <v>3.393785993619645</v>
       </c>
       <c r="G13">
-        <v>2.699023164461551</v>
+        <v>0.888726679535921</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.806271744636049</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.5787932160561198</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5786714381881737</v>
       </c>
       <c r="L13">
-        <v>5.333161647882292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>5.332888265186781</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.223390929862347</v>
+        <v>2.223031928467009</v>
       </c>
       <c r="C14">
-        <v>0.3897306601141679</v>
+        <v>0.3895776141275746</v>
       </c>
       <c r="D14">
-        <v>0.03436140233000629</v>
+        <v>0.03413788184883515</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.339016329580915</v>
+        <v>3.331928574044639</v>
       </c>
       <c r="G14">
-        <v>2.65049161145248</v>
+        <v>0.8720266258633416</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.774605818561227</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.5679894450813592</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5678727718439873</v>
       </c>
       <c r="L14">
-        <v>5.202976405642616</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>5.202720990319861</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.197145835345196</v>
+        <v>2.196796845728045</v>
       </c>
       <c r="C15">
-        <v>0.3856628282393331</v>
+        <v>0.385513309057842</v>
       </c>
       <c r="D15">
-        <v>0.034280548703439</v>
+        <v>0.03405937625025501</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.301287420794324</v>
+        <v>3.294282477967585</v>
       </c>
       <c r="G15">
-        <v>2.620964003360129</v>
+        <v>0.8618644672210962</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.755341163963649</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.5613875695450048</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5612739688818138</v>
       </c>
       <c r="L15">
-        <v>5.124289807271808</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>5.124044885188155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047759282167817</v>
+        <v>2.047464856577164</v>
       </c>
       <c r="C16">
-        <v>0.3624334793062474</v>
+        <v>0.3623035304056543</v>
       </c>
       <c r="D16">
-        <v>0.03385028198957585</v>
+        <v>0.03364230086303266</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.088553953365533</v>
+        <v>3.08201612263457</v>
       </c>
       <c r="G16">
-        <v>2.454592851205476</v>
+        <v>0.804583851487763</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.64681948058589</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5237833064417003</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5236865389655279</v>
       </c>
       <c r="L16">
-        <v>4.68788003807849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>4.687688529017947</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.956955898637204</v>
+        <v>1.956692646508998</v>
       </c>
       <c r="C17">
-        <v>0.3482522878778838</v>
+        <v>0.3481338205019426</v>
       </c>
       <c r="D17">
-        <v>0.03361281539144656</v>
+        <v>0.03341271470313245</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.960887728719769</v>
+        <v>2.954630489292327</v>
       </c>
       <c r="G17">
-        <v>2.354847477658026</v>
+        <v>0.7702220266188391</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.581777874121371</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.5009041690524825</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5008170937784016</v>
       </c>
       <c r="L17">
-        <v>4.43150646217282</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>4.431342752376523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.905012441439936</v>
+        <v>1.904766350833</v>
       </c>
       <c r="C18">
-        <v>0.3401194073732654</v>
+        <v>0.3400073689184353</v>
       </c>
       <c r="D18">
-        <v>0.03348488214427192</v>
+        <v>0.03328924469196082</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.888405000911945</v>
+        <v>2.882307203875342</v>
       </c>
       <c r="G18">
-        <v>2.298249734251854</v>
+        <v>0.7507170247512107</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.544879509114438</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.4878090042394874</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4877272915432016</v>
       </c>
       <c r="L18">
-        <v>4.28765963568631</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>4.287510429132254</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.887471835239609</v>
+        <v>1.887231429999872</v>
       </c>
       <c r="C19">
-        <v>0.3373696594984921</v>
+        <v>0.3372597693057884</v>
       </c>
       <c r="D19">
-        <v>0.03344295872421554</v>
+        <v>0.03324882126597828</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.864017932836788</v>
+        <v>2.857973807319837</v>
       </c>
       <c r="G19">
-        <v>2.279212609679192</v>
+        <v>0.7441550969391812</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.532469754618162</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.4833857422985446</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4833058107164732</v>
       </c>
       <c r="L19">
-        <v>4.239529075446882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>4.239384551194902</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966592112668337</v>
+        <v>1.966325623263174</v>
       </c>
       <c r="C20">
-        <v>0.3497593992150456</v>
+        <v>0.3496397281006836</v>
       </c>
       <c r="D20">
-        <v>0.0336371760247296</v>
+        <v>0.03343624381043142</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.974377916781123</v>
+        <v>2.968091014557189</v>
       </c>
       <c r="G20">
-        <v>2.365383852713464</v>
+        <v>0.7738525237555507</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.588647595701701</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.5033329147319066</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5032448301118961</v>
       </c>
       <c r="L20">
-        <v>4.458412488525909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.458245979967089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.235995013973621</v>
+        <v>2.235631158861679</v>
       </c>
       <c r="C21">
-        <v>0.3916827850489142</v>
+        <v>0.391528035837382</v>
       </c>
       <c r="D21">
-        <v>0.03440080545544433</v>
+        <v>0.03417615398952378</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.357173830099185</v>
+        <v>3.350046221256775</v>
       </c>
       <c r="G21">
-        <v>2.664704410959075</v>
+        <v>0.8769176648006862</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.783879078218206</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.5711594620423739</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5710413008765656</v>
       </c>
       <c r="L21">
-        <v>5.240990657497065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.240730074513124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.415133341015292</v>
+        <v>2.414697264709559</v>
       </c>
       <c r="C22">
-        <v>0.4193242976452893</v>
+        <v>0.4191446679975286</v>
       </c>
       <c r="D22">
-        <v>0.03500242564146916</v>
+        <v>0.03476145352026094</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.618003497953708</v>
+        <v>3.610303331681621</v>
       </c>
       <c r="G22">
-        <v>2.869032766169511</v>
+        <v>0.947205616827631</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.91722316161362</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.6161778072048136</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6160376236205138</v>
       </c>
       <c r="L22">
-        <v>5.798138867392154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.797794813712784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.31921605215183</v>
+        <v>2.318819401959445</v>
       </c>
       <c r="C23">
-        <v>0.404548400225309</v>
+        <v>0.404382249606499</v>
       </c>
       <c r="D23">
-        <v>0.03467048400382922</v>
+        <v>0.03443830897216316</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.477695975309757</v>
+        <v>3.470303836905458</v>
       </c>
       <c r="G23">
-        <v>2.759080756054075</v>
+        <v>0.9093888436093778</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.845462421878864</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.5920818432990416</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5919536556543861</v>
       </c>
       <c r="L23">
-        <v>5.495789738577415</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.495492818742449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.962234774341852</v>
+        <v>1.961969750860447</v>
       </c>
       <c r="C24">
-        <v>0.3490779720522568</v>
+        <v>0.3489588456798458</v>
       </c>
       <c r="D24">
-        <v>0.03362613608209131</v>
+        <v>0.03342558000855078</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.968276177443471</v>
+        <v>2.962002691546928</v>
       </c>
       <c r="G24">
-        <v>2.3606180486548</v>
+        <v>0.7722104034028092</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.585540265095133</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.5022346983341706</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5021470706873501</v>
       </c>
       <c r="L24">
-        <v>4.446237360345663</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.446072121635083</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.587779052113632</v>
+        <v>1.587627262409256</v>
       </c>
       <c r="C25">
-        <v>0.2901214006678146</v>
+        <v>0.2900464686902637</v>
       </c>
       <c r="D25">
-        <v>0.03282306957613912</v>
+        <v>0.03265402544223761</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.454262991872895</v>
+        <v>2.449123489837703</v>
       </c>
       <c r="G25">
-        <v>1.959762253282619</v>
+        <v>0.6339363377656895</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.324341926313735</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4077163488806548</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.4076645414129061</v>
       </c>
       <c r="L25">
-        <v>3.449194382980281</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.449115264774946</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.318493080853557</v>
+        <v>2.493615213464125</v>
       </c>
       <c r="C2">
-        <v>0.2471797182691233</v>
+        <v>0.5807858965198136</v>
       </c>
       <c r="D2">
-        <v>0.03226791739197665</v>
+        <v>0.0223805974118001</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.093081624165052</v>
+        <v>2.424413257526922</v>
       </c>
       <c r="G2">
-        <v>0.5379798043802566</v>
+        <v>0.0008052104774006712</v>
       </c>
       <c r="H2">
-        <v>1.14374473002006</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.145149587348854</v>
       </c>
       <c r="K2">
-        <v>0.3395535411581037</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.785219587974993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0.6828281190139407</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.684910158576415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.13900494044637</v>
+        <v>2.154922862589672</v>
       </c>
       <c r="C3">
-        <v>0.2183196619329379</v>
+        <v>0.501202601992361</v>
       </c>
       <c r="D3">
-        <v>0.03208578197469336</v>
+        <v>0.02112202332492785</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.861818595080109</v>
+        <v>2.224942390026655</v>
       </c>
       <c r="G3">
-        <v>0.4756419784947923</v>
+        <v>0.0008136132954558804</v>
       </c>
       <c r="H3">
-        <v>1.026821538100592</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1367617148932894</v>
       </c>
       <c r="K3">
-        <v>0.2940324976943458</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.363755472399376</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0.5940363395731225</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.543796125046484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.029896199500172</v>
+        <v>1.949873144209732</v>
       </c>
       <c r="C4">
-        <v>0.2006530967557438</v>
+        <v>0.452924635685406</v>
       </c>
       <c r="D4">
-        <v>0.03200433355513965</v>
+        <v>0.02036249136674684</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.723826805105773</v>
+        <v>2.107531765293459</v>
       </c>
       <c r="G4">
-        <v>0.4384323816717881</v>
+        <v>0.0008189068165956909</v>
       </c>
       <c r="H4">
-        <v>0.9572234704488949</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1318693372766688</v>
       </c>
       <c r="K4">
-        <v>0.2663169093882658</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.115264760536164</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0.5404121797584835</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.460823587413628</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9856642194699532</v>
+        <v>1.866940021683945</v>
       </c>
       <c r="C5">
-        <v>0.1934616358616807</v>
+        <v>0.4333736036396942</v>
       </c>
       <c r="D5">
-        <v>0.03197765289478482</v>
+        <v>0.02005616305868685</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.668477399346585</v>
+        <v>2.060840721972838</v>
       </c>
       <c r="G5">
-        <v>0.4235029107297947</v>
+        <v>0.000821099351187841</v>
       </c>
       <c r="H5">
-        <v>0.9293470880551098</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.129935368527633</v>
       </c>
       <c r="K5">
-        <v>0.2550706504149147</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.016129544079021</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0.5187562244036314</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.427847047341629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9783322076622767</v>
+        <v>1.853203963938228</v>
       </c>
       <c r="C6">
-        <v>0.1922678100870172</v>
+        <v>0.4301338917860846</v>
       </c>
       <c r="D6">
-        <v>0.03197358551489415</v>
+        <v>0.02000548634589805</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.659336648409322</v>
+        <v>2.053154158459634</v>
       </c>
       <c r="G6">
-        <v>0.4210370638272707</v>
+        <v>0.0008214656026145463</v>
       </c>
       <c r="H6">
-        <v>0.9247457475400438</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1296176994159737</v>
       </c>
       <c r="K6">
-        <v>0.2532058167468989</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1.999784563285942</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0.5151713380384635</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.422419342055875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.029298794795722</v>
+        <v>1.948752275650122</v>
       </c>
       <c r="C7">
-        <v>0.2005560858930409</v>
+        <v>0.45266049833387</v>
       </c>
       <c r="D7">
-        <v>0.03200394875747392</v>
+        <v>0.02035834737891662</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.723076921199635</v>
+        <v>2.106897548234443</v>
       </c>
       <c r="G7">
-        <v>0.438230133997962</v>
+        <v>0.0008189362404822306</v>
       </c>
       <c r="H7">
-        <v>0.9568456369121634</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.1318430197726101</v>
       </c>
       <c r="K7">
-        <v>0.2661650576331596</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.113919733228002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0.5401193610437787</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.46037558255874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.256349339817206</v>
+        <v>2.376164106653334</v>
       </c>
       <c r="C8">
-        <v>0.2372141374658412</v>
+        <v>0.553208154679254</v>
       </c>
       <c r="D8">
-        <v>0.03219808185860273</v>
+        <v>0.02194379922156742</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.012432341935138</v>
+        <v>2.354509599151982</v>
       </c>
       <c r="G8">
-        <v>0.5162426058817289</v>
+        <v>0.0008080809584649428</v>
       </c>
       <c r="H8">
-        <v>1.102932339743546</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.1422007269135435</v>
       </c>
       <c r="K8">
-        <v>0.3238023950348676</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.637460975621067</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0.6520090856307874</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.635436619251763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.712553089294317</v>
+        <v>3.242693268413745</v>
       </c>
       <c r="C9">
-        <v>0.3097950367250917</v>
+        <v>0.7562930197204878</v>
       </c>
       <c r="D9">
-        <v>0.03288036758145907</v>
+        <v>0.02516606650353381</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.618016566221968</v>
+        <v>2.886215449983439</v>
       </c>
       <c r="G9">
-        <v>0.679460130182818</v>
+        <v>0.0007877762012443267</v>
       </c>
       <c r="H9">
-        <v>1.410228287541116</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1648131478250221</v>
       </c>
       <c r="K9">
-        <v>0.4392267748067198</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.771575104565017</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0.8799591921423158</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.012263766546653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.057862763728366</v>
+        <v>3.904968507558635</v>
       </c>
       <c r="C10">
-        <v>0.3639237166843117</v>
+        <v>0.9110935572244898</v>
       </c>
       <c r="D10">
-        <v>0.03366973561270115</v>
+        <v>0.0276169126850796</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.096686513533626</v>
+        <v>3.314295395594513</v>
       </c>
       <c r="G10">
-        <v>0.8085417502405647</v>
+        <v>0.0007733293720665039</v>
       </c>
       <c r="H10">
-        <v>1.654314136015103</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1832281378087686</v>
       </c>
       <c r="K10">
-        <v>0.5263051789223994</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.717466929571259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>1.054900242013503</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.316443737882011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.218010884441526</v>
+        <v>4.213983568635854</v>
       </c>
       <c r="C11">
-        <v>0.3888000721939591</v>
+        <v>0.9832510571373234</v>
       </c>
       <c r="D11">
-        <v>0.0341227330810483</v>
+        <v>0.02875415878293097</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.324715281390127</v>
+        <v>3.519575812427689</v>
       </c>
       <c r="G11">
-        <v>0.8700793941358569</v>
+        <v>0.000766826638923125</v>
       </c>
       <c r="H11">
-        <v>1.770914141980256</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.1920996421442496</v>
       </c>
       <c r="K11">
-        <v>0.5666099586785336</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.187614613122889</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>1.136693160069406</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.46253771993743</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.279173560634007</v>
+        <v>4.332321552761584</v>
       </c>
       <c r="C12">
-        <v>0.3982613692932091</v>
+        <v>1.010875646319619</v>
       </c>
       <c r="D12">
-        <v>0.03431130487568979</v>
+        <v>0.02918844625042283</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.412853391207193</v>
+        <v>3.599059220994178</v>
       </c>
       <c r="G12">
-        <v>0.8938750253064995</v>
+        <v>0.00076437103484992</v>
       </c>
       <c r="H12">
-        <v>1.816035582496639</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.1955400610102203</v>
       </c>
       <c r="K12">
-        <v>0.5819890623396731</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.373240765272215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1.168040562144228</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.519142392225234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.265976750763798</v>
+        <v>4.306773003987587</v>
       </c>
       <c r="C13">
-        <v>0.3962218265929209</v>
+        <v>1.004911972652963</v>
       </c>
       <c r="D13">
-        <v>0.03426986792635489</v>
+        <v>0.02909474528023992</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.393785993619645</v>
+        <v>3.581859261833046</v>
       </c>
       <c r="G13">
-        <v>0.888726679535921</v>
+        <v>0.000764899643020427</v>
       </c>
       <c r="H13">
-        <v>1.806271744636049</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.1947953324343388</v>
       </c>
       <c r="K13">
-        <v>0.5786714381881737</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.332888265186781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1.161271717471166</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.506891553028083</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.223031928467009</v>
+        <v>4.223691547962403</v>
       </c>
       <c r="C14">
-        <v>0.3895776141275746</v>
+        <v>0.9855174209314157</v>
       </c>
       <c r="D14">
-        <v>0.03413788184883515</v>
+        <v>0.02878981226142585</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.331928574044639</v>
+        <v>3.5260784828032</v>
       </c>
       <c r="G14">
-        <v>0.8720266258633416</v>
+        <v>0.0007666244971425363</v>
       </c>
       <c r="H14">
-        <v>1.774605818561227</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.1923810033656821</v>
       </c>
       <c r="K14">
-        <v>0.5678727718439873</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.202720990319861</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1.139264280707138</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.467167857670361</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.196796845728045</v>
+        <v>4.172980387000564</v>
       </c>
       <c r="C15">
-        <v>0.385513309057842</v>
+        <v>0.9736783927847341</v>
       </c>
       <c r="D15">
-        <v>0.03405937625025501</v>
+        <v>0.02860351960825369</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.294282477967585</v>
+        <v>3.492146229546648</v>
       </c>
       <c r="G15">
-        <v>0.8618644672210962</v>
+        <v>0.0007676818115650181</v>
       </c>
       <c r="H15">
-        <v>1.755341163963649</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.1909130177298479</v>
       </c>
       <c r="K15">
-        <v>0.5612739688818138</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.124044885188155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>1.125834621220804</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.443008408755105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.047464856577164</v>
+        <v>3.884946538234033</v>
       </c>
       <c r="C16">
-        <v>0.3623035304056543</v>
+        <v>0.9064169990980702</v>
       </c>
       <c r="D16">
-        <v>0.03364230086303266</v>
+        <v>0.02754307503352393</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.08201612263457</v>
+        <v>3.301111140648544</v>
       </c>
       <c r="G16">
-        <v>0.804583851487763</v>
+        <v>0.0007737554766007789</v>
       </c>
       <c r="H16">
-        <v>1.64681948058589</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.182659128074377</v>
       </c>
       <c r="K16">
-        <v>0.5236865389655279</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.687688529017947</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.049604014894335</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.307065679750025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.956692646508998</v>
+        <v>3.710369106632584</v>
       </c>
       <c r="C17">
-        <v>0.3481338205019426</v>
+        <v>0.8656330038437545</v>
       </c>
       <c r="D17">
-        <v>0.03341271470313245</v>
+        <v>0.0268985265985684</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.954630489292327</v>
+        <v>3.186773472839263</v>
       </c>
       <c r="G17">
-        <v>0.7702220266188391</v>
+        <v>0.000777497108744281</v>
       </c>
       <c r="H17">
-        <v>1.581777874121371</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1777288966505068</v>
       </c>
       <c r="K17">
-        <v>0.5008170937784016</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.431342752376523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.003443063439583</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.225761866865639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.904766350833</v>
+        <v>3.610671625444752</v>
       </c>
       <c r="C18">
-        <v>0.3400073689184353</v>
+        <v>0.8423353243670419</v>
       </c>
       <c r="D18">
-        <v>0.03328924469196082</v>
+        <v>0.02652987273418006</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.882307203875342</v>
+        <v>3.121986406416369</v>
       </c>
       <c r="G18">
-        <v>0.7507170247512107</v>
+        <v>0.0007796559185778519</v>
       </c>
       <c r="H18">
-        <v>1.544879509114438</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1749390339965373</v>
       </c>
       <c r="K18">
-        <v>0.4877272915432016</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.287510429132254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9770968693785278</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.179713249989149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.887231429999872</v>
+        <v>3.577032675963608</v>
       </c>
       <c r="C19">
-        <v>0.3372597693057884</v>
+        <v>0.8344732268575115</v>
       </c>
       <c r="D19">
-        <v>0.03324882126597828</v>
+        <v>0.02640539732495029</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.857973807319837</v>
+        <v>3.100211840432451</v>
       </c>
       <c r="G19">
-        <v>0.7441550969391812</v>
+        <v>0.0007803880972939472</v>
       </c>
       <c r="H19">
-        <v>1.532469754618162</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1740020335817363</v>
       </c>
       <c r="K19">
-        <v>0.4833058107164732</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.239384551194902</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.968210008367798</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.164239948770344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966325623263174</v>
+        <v>3.728877775885167</v>
       </c>
       <c r="C20">
-        <v>0.3496397281006836</v>
+        <v>0.8699576087163905</v>
       </c>
       <c r="D20">
-        <v>0.03343624381043142</v>
+        <v>0.02696692247757682</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.968091014557189</v>
+        <v>3.198842222504254</v>
       </c>
       <c r="G20">
-        <v>0.7738525237555507</v>
+        <v>0.0007770981310166264</v>
       </c>
       <c r="H20">
-        <v>1.588647595701701</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.1782489127909486</v>
       </c>
       <c r="K20">
-        <v>0.5032448301118961</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.458245979967089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.008335441312809</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.234341606430448</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.235631158861679</v>
+        <v>4.248056948242777</v>
       </c>
       <c r="C21">
-        <v>0.391528035837382</v>
+        <v>0.9912054902445391</v>
       </c>
       <c r="D21">
-        <v>0.03417615398952378</v>
+        <v>0.02887927598555251</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.350046221256775</v>
+        <v>3.542413198851335</v>
       </c>
       <c r="G21">
-        <v>0.8769176648006862</v>
+        <v>0.0007661177069416692</v>
       </c>
       <c r="H21">
-        <v>1.783879078218206</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.193087867462495</v>
       </c>
       <c r="K21">
-        <v>0.5710413008765656</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.240730074513124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.145717756346421</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.478799388474727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.414697264709559</v>
+        <v>4.595186286351009</v>
       </c>
       <c r="C22">
-        <v>0.4191446679975286</v>
+        <v>1.072225980882052</v>
       </c>
       <c r="D22">
-        <v>0.03476145352026094</v>
+        <v>0.03015056782981063</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.610303331681621</v>
+        <v>3.777277992900849</v>
       </c>
       <c r="G22">
-        <v>0.947205616827631</v>
+        <v>0.0007589794748902312</v>
       </c>
       <c r="H22">
-        <v>1.91722316161362</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.203263537421897</v>
       </c>
       <c r="K22">
-        <v>0.6160376236205138</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.797794813712784</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.237718065568131</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>2.646137080676425</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.318819401959445</v>
+        <v>4.409125482312731</v>
       </c>
       <c r="C23">
-        <v>0.404382249606499</v>
+        <v>1.028802609538531</v>
       </c>
       <c r="D23">
-        <v>0.03443830897216316</v>
+        <v>0.0294699297656571</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.470303836905458</v>
+        <v>3.650896634637576</v>
       </c>
       <c r="G23">
-        <v>0.9093888436093778</v>
+        <v>0.0007627869368030998</v>
       </c>
       <c r="H23">
-        <v>1.845462421878864</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.1977852736965531</v>
       </c>
       <c r="K23">
-        <v>0.5919536556543861</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.495492818742449</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.188392623469397</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.556069955329292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.961969750860447</v>
+        <v>3.720507936746458</v>
       </c>
       <c r="C24">
-        <v>0.3489588456798458</v>
+        <v>0.8680019926343618</v>
       </c>
       <c r="D24">
-        <v>0.03342558000855078</v>
+        <v>0.02693599479594866</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.962002691546928</v>
+        <v>3.193383007633798</v>
       </c>
       <c r="G24">
-        <v>0.7722104034028092</v>
+        <v>0.0007772784847518209</v>
       </c>
       <c r="H24">
-        <v>1.585540265095133</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.1780136753252748</v>
       </c>
       <c r="K24">
-        <v>0.5021470706873501</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.446072121635083</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.006123002290188</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.230460557107875</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.587627262409256</v>
+        <v>3.00443445299851</v>
       </c>
       <c r="C25">
-        <v>0.2900464686902637</v>
+        <v>0.700529482410019</v>
       </c>
       <c r="D25">
-        <v>0.03265402544223761</v>
+        <v>0.02428091716326364</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.449123489837703</v>
+        <v>2.736539106466466</v>
       </c>
       <c r="G25">
-        <v>0.6339363377656895</v>
+        <v>0.0007931763551338376</v>
       </c>
       <c r="H25">
-        <v>1.324341926313735</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.158411095870342</v>
       </c>
       <c r="K25">
-        <v>0.4076645414129061</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.449115264774946</v>
+        <v>0.8171612332282692</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.906069585966392</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.493615213464125</v>
+        <v>0.8100290767939953</v>
       </c>
       <c r="C2">
-        <v>0.5807858965198136</v>
+        <v>0.1446157564343622</v>
       </c>
       <c r="D2">
-        <v>0.0223805974118001</v>
+        <v>0.004378564475453928</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.424413257526922</v>
+        <v>3.501932793465159</v>
       </c>
       <c r="G2">
-        <v>0.0008052104774006712</v>
+        <v>0.0008802381187010903</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.333122139260723</v>
       </c>
       <c r="J2">
-        <v>0.145149587348854</v>
+        <v>0.09533924803697857</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8986485816375875</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1592065160993883</v>
       </c>
       <c r="M2">
-        <v>0.6828281190139407</v>
+        <v>0.1870234934141166</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.684910158576415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.154922862589672</v>
+        <v>0.7163088102098527</v>
       </c>
       <c r="C3">
-        <v>0.501202601992361</v>
+        <v>0.1249061025066993</v>
       </c>
       <c r="D3">
-        <v>0.02112202332492785</v>
+        <v>0.004164502240966428</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.224942390026655</v>
+        <v>3.325471994444683</v>
       </c>
       <c r="G3">
-        <v>0.0008136132954558804</v>
+        <v>0.0008871823417201385</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.229608542610023</v>
       </c>
       <c r="J3">
-        <v>0.1367617148932894</v>
+        <v>0.09472742732951289</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7889254888224002</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1497417720955099</v>
       </c>
       <c r="M3">
-        <v>0.5940363395731225</v>
+        <v>0.168618756596981</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.543796125046484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.949873144209732</v>
+        <v>0.6599543456598269</v>
       </c>
       <c r="C4">
-        <v>0.452924635685406</v>
+        <v>0.1129907004314106</v>
       </c>
       <c r="D4">
-        <v>0.02036249136674684</v>
+        <v>0.004029054703736712</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.107531765293459</v>
+        <v>3.220344773623424</v>
       </c>
       <c r="G4">
-        <v>0.0008189068165956909</v>
+        <v>0.0008915762322102992</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.167969221486587</v>
       </c>
       <c r="J4">
-        <v>0.1318693372766688</v>
+        <v>0.09439029075415917</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7228408184822683</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1441423386090221</v>
       </c>
       <c r="M4">
-        <v>0.5404121797584835</v>
+        <v>0.1575977176495797</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.460823587413628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.866940021683945</v>
+        <v>0.6372631310420331</v>
       </c>
       <c r="C5">
-        <v>0.4333736036396942</v>
+        <v>0.1081758443433785</v>
       </c>
       <c r="D5">
-        <v>0.02005616305868685</v>
+        <v>0.003972801994503783</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.060840721972838</v>
+        <v>3.178257629914413</v>
       </c>
       <c r="G5">
-        <v>0.000821099351187841</v>
+        <v>0.0008934004263604031</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.143299333360176</v>
       </c>
       <c r="J5">
-        <v>0.129935368527633</v>
+        <v>0.09426225259693588</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.696203208486935</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1419109107520811</v>
       </c>
       <c r="M5">
-        <v>0.5187562244036314</v>
+        <v>0.1531716757930326</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.427847047341629</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.853203963938228</v>
+        <v>0.6335110867600804</v>
       </c>
       <c r="C6">
-        <v>0.4301338917860846</v>
+        <v>0.1073786328907005</v>
       </c>
       <c r="D6">
-        <v>0.02000548634589805</v>
+        <v>0.003963396180087564</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.053154158459634</v>
+        <v>3.171312984267345</v>
       </c>
       <c r="G6">
-        <v>0.0008214656026145463</v>
+        <v>0.0008937053907549184</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.139229067154304</v>
       </c>
       <c r="J6">
-        <v>0.1296176994159737</v>
+        <v>0.09424154701497045</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6917968523913487</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.141543345607694</v>
       </c>
       <c r="M6">
-        <v>0.5151713380384635</v>
+        <v>0.1524405233970789</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.422419342055875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.948752275650122</v>
+        <v>0.6596472484206117</v>
       </c>
       <c r="C7">
-        <v>0.45266049833387</v>
+        <v>0.1129256082975445</v>
       </c>
       <c r="D7">
-        <v>0.02035834737891662</v>
+        <v>0.004028300397152407</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.106897548234443</v>
+        <v>3.219774194950659</v>
       </c>
       <c r="G7">
-        <v>0.0008189362404822306</v>
+        <v>0.000891600696524874</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.167634741305932</v>
       </c>
       <c r="J7">
-        <v>0.1318430197726101</v>
+        <v>0.09438852657121544</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7224804296202194</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1441120444866115</v>
       </c>
       <c r="M7">
-        <v>0.5401193610437787</v>
+        <v>0.1575377694133344</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.46037558255874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.376164106653334</v>
+        <v>0.7774513357816204</v>
       </c>
       <c r="C8">
-        <v>0.553208154679254</v>
+        <v>0.1377773638706117</v>
       </c>
       <c r="D8">
-        <v>0.02194379922156742</v>
+        <v>0.004305557653767167</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.354509599151982</v>
+        <v>3.440385341784975</v>
       </c>
       <c r="G8">
-        <v>0.0008080809584649428</v>
+        <v>0.0008826060608497261</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.297011434145119</v>
       </c>
       <c r="J8">
-        <v>0.1422007269135435</v>
+        <v>0.09512008540331252</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8605299171317142</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1558972639659686</v>
       </c>
       <c r="M8">
-        <v>0.6520090856307874</v>
+        <v>0.1806162920574117</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.635436619251763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.242693268413745</v>
+        <v>1.019167105908082</v>
       </c>
       <c r="C9">
-        <v>0.7562930197204878</v>
+        <v>0.1882914167884309</v>
       </c>
       <c r="D9">
-        <v>0.02516606650353381</v>
+        <v>0.00481998211129131</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.886215449983439</v>
+        <v>3.901335074017993</v>
       </c>
       <c r="G9">
-        <v>0.0007877762012443267</v>
+        <v>0.0008659547349535615</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.567593642375513</v>
       </c>
       <c r="J9">
-        <v>0.1648131478250221</v>
+        <v>0.09687690386305192</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.142965987991744</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1808328530195027</v>
       </c>
       <c r="M9">
-        <v>0.8799591921423158</v>
+        <v>0.2283456247421576</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.012263766546653</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.904968507558635</v>
+        <v>1.205203783081487</v>
       </c>
       <c r="C10">
-        <v>0.9110935572244898</v>
+        <v>0.2269499096705516</v>
       </c>
       <c r="D10">
-        <v>0.0276169126850796</v>
+        <v>0.005184358069119099</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.314295395594513</v>
+        <v>4.261494754582543</v>
       </c>
       <c r="G10">
-        <v>0.0007733293720665039</v>
+        <v>0.0008542545334031537</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.779190494850425</v>
       </c>
       <c r="J10">
-        <v>0.1832281378087686</v>
+        <v>0.09838918613923653</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.359940339428817</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2004835551280308</v>
       </c>
       <c r="M10">
-        <v>1.054900242013503</v>
+        <v>0.26530802798057</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.316443737882011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.213983568635854</v>
+        <v>1.292147975612465</v>
       </c>
       <c r="C11">
-        <v>0.9832510571373234</v>
+        <v>0.2449872565074429</v>
       </c>
       <c r="D11">
-        <v>0.02875415878293097</v>
+        <v>0.005348359496881727</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.519575812427689</v>
+        <v>4.431052731250531</v>
       </c>
       <c r="G11">
-        <v>0.000766826638923125</v>
+        <v>0.000849031005701484</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.878850519267431</v>
       </c>
       <c r="J11">
-        <v>0.1920996421442496</v>
+        <v>0.09913143922030798</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.461280187916913</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2097659562598579</v>
       </c>
       <c r="M11">
-        <v>1.136693160069406</v>
+        <v>0.2826309846697725</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.46253771993743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.332321552761584</v>
+        <v>1.325448421295903</v>
       </c>
       <c r="C12">
-        <v>1.010875646319619</v>
+        <v>0.2518931377843785</v>
       </c>
       <c r="D12">
-        <v>0.02918844625042283</v>
+        <v>0.005410329854369067</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.599059220994178</v>
+        <v>4.496178507687461</v>
       </c>
       <c r="G12">
-        <v>0.00076437103484992</v>
+        <v>0.000847065704969179</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.917135664374314</v>
       </c>
       <c r="J12">
-        <v>0.1955400610102203</v>
+        <v>0.09942088741343014</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.500087497293691</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2133352692668211</v>
       </c>
       <c r="M12">
-        <v>1.168040562144228</v>
+        <v>0.2892727390260177</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.519142392225234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.306773003987587</v>
+        <v>1.318259083952114</v>
       </c>
       <c r="C13">
-        <v>1.004911972652963</v>
+        <v>0.2504022922502713</v>
       </c>
       <c r="D13">
-        <v>0.02909474528023992</v>
+        <v>0.005396987253018182</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.581859261833046</v>
+        <v>4.482110064398881</v>
       </c>
       <c r="G13">
-        <v>0.000764899643020427</v>
+        <v>0.0008474884263835696</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.90886502558314</v>
       </c>
       <c r="J13">
-        <v>0.1947953324343388</v>
+        <v>0.09935816761789695</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.491709530146636</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2125640566893594</v>
       </c>
       <c r="M13">
-        <v>1.161271717471166</v>
+        <v>0.2878385251389304</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.506891553028083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.223691547962403</v>
+        <v>1.294879810546291</v>
       </c>
       <c r="C14">
-        <v>0.9855174209314157</v>
+        <v>0.2455538289356696</v>
       </c>
       <c r="D14">
-        <v>0.02878981226142585</v>
+        <v>0.005353459756939571</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.5260784828032</v>
+        <v>4.436391692904976</v>
       </c>
       <c r="G14">
-        <v>0.0007666244971425363</v>
+        <v>0.00084886907299173</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.881988973111845</v>
       </c>
       <c r="J14">
-        <v>0.1923810033656821</v>
+        <v>0.09915508106815807</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.46446390619036</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2100584882545178</v>
       </c>
       <c r="M14">
-        <v>1.139264280707138</v>
+        <v>0.2831757103379644</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.467167857670361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.172980387000564</v>
+        <v>1.280609741382278</v>
       </c>
       <c r="C15">
-        <v>0.9736783927847341</v>
+        <v>0.2425941756968655</v>
       </c>
       <c r="D15">
-        <v>0.02860351960825369</v>
+        <v>0.005326784402843288</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.492146229546648</v>
+        <v>4.408510393231893</v>
       </c>
       <c r="G15">
-        <v>0.0007676818115650181</v>
+        <v>0.0008497163706796979</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.865599503377538</v>
       </c>
       <c r="J15">
-        <v>0.1909130177298479</v>
+        <v>0.09903179275621099</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.447833110154221</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2085309768932433</v>
       </c>
       <c r="M15">
-        <v>1.125834621220804</v>
+        <v>0.2803305469459616</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.443008408755105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.884946538234033</v>
+        <v>1.199571995253081</v>
       </c>
       <c r="C16">
-        <v>0.9064169990980702</v>
+        <v>0.2257810925136283</v>
       </c>
       <c r="D16">
-        <v>0.02754307503352393</v>
+        <v>0.005173614598431797</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.301111140648544</v>
+        <v>4.250536777243212</v>
       </c>
       <c r="G16">
-        <v>0.0007737554766007789</v>
+        <v>0.0008545977699530228</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.77275068250168</v>
       </c>
       <c r="J16">
-        <v>0.182659128074377</v>
+        <v>0.09834181795108776</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.353375008152682</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1998842439589552</v>
       </c>
       <c r="M16">
-        <v>1.049604014894335</v>
+        <v>0.2641868978729889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.307065679750025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.710369106632584</v>
+        <v>1.150480641955681</v>
       </c>
       <c r="C17">
-        <v>0.8656330038437545</v>
+        <v>0.2155896370736912</v>
       </c>
       <c r="D17">
-        <v>0.0268985265985684</v>
+        <v>0.005079278973747492</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.186773472839263</v>
+        <v>4.155154985099017</v>
       </c>
       <c r="G17">
-        <v>0.000777497108744281</v>
+        <v>0.0008576166743772751</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.71670126311048</v>
       </c>
       <c r="J17">
-        <v>0.1777288966505068</v>
+        <v>0.09793283498120786</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.296139435115322</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1946710057150511</v>
       </c>
       <c r="M17">
-        <v>1.003443063439583</v>
+        <v>0.2544195379570517</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.225761866865639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.610671625444752</v>
+        <v>1.122459650374992</v>
       </c>
       <c r="C18">
-        <v>0.8423353243670419</v>
+        <v>0.2097695716189492</v>
       </c>
       <c r="D18">
-        <v>0.02652987273418006</v>
+        <v>0.005024846217827061</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.121986406416369</v>
+        <v>4.100826016045716</v>
       </c>
       <c r="G18">
-        <v>0.0007796559185778519</v>
+        <v>0.0008593624797073172</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.684779778354994</v>
       </c>
       <c r="J18">
-        <v>0.1749390339965373</v>
+        <v>0.0977026738108222</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.263463798886988</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1917044709987721</v>
       </c>
       <c r="M18">
-        <v>0.9770968693785278</v>
+        <v>0.248848904669277</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.179713249989149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.577032675963608</v>
+        <v>1.113007900308588</v>
       </c>
       <c r="C19">
-        <v>0.8344732268575115</v>
+        <v>0.2078058692839164</v>
       </c>
       <c r="D19">
-        <v>0.02640539732495029</v>
+        <v>0.005006383130387704</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.100211840432451</v>
+        <v>4.082519794681588</v>
       </c>
       <c r="G19">
-        <v>0.0007803880972939472</v>
+        <v>0.00085995523896365</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.6740244613258</v>
       </c>
       <c r="J19">
-        <v>0.1740020335817363</v>
+        <v>0.09762560051273539</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.252440900373159</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1907054040984448</v>
       </c>
       <c r="M19">
-        <v>0.968210008367798</v>
+        <v>0.2469706527321556</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.164239948770344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.728877775885167</v>
+        <v>1.155683940437598</v>
       </c>
       <c r="C20">
-        <v>0.8699576087163905</v>
+        <v>0.2166701363910875</v>
       </c>
       <c r="D20">
-        <v>0.02696692247757682</v>
+        <v>0.005089338308218672</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.198842222504254</v>
+        <v>4.16525280629736</v>
       </c>
       <c r="G20">
-        <v>0.0007770981310166264</v>
+        <v>0.0008572943433147184</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.722634653706308</v>
       </c>
       <c r="J20">
-        <v>0.1782489127909486</v>
+        <v>0.09797584275732873</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.302206562505177</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1952226196988249</v>
       </c>
       <c r="M20">
-        <v>1.008335441312809</v>
+        <v>0.2554543344209215</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.234341606430448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.248056948242777</v>
+        <v>1.301736280060965</v>
       </c>
       <c r="C21">
-        <v>0.9912054902445391</v>
+        <v>0.246975800038399</v>
       </c>
       <c r="D21">
-        <v>0.02887927598555251</v>
+        <v>0.005366247410691471</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.542413198851335</v>
+        <v>4.449794569444634</v>
       </c>
       <c r="G21">
-        <v>0.0007661177069416692</v>
+        <v>0.0008484632105188639</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.889867822286064</v>
       </c>
       <c r="J21">
-        <v>0.193087867462495</v>
+        <v>0.09921450050826053</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.472454430557292</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2107929199837599</v>
       </c>
       <c r="M21">
-        <v>1.145717756346421</v>
+        <v>0.2845429941214803</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.478799388474727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.595186286351009</v>
+        <v>1.399408395093474</v>
       </c>
       <c r="C22">
-        <v>1.072225980882052</v>
+        <v>0.2672283173464791</v>
       </c>
       <c r="D22">
-        <v>0.03015056782981063</v>
+        <v>0.005546516091555986</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.777277992900849</v>
+        <v>4.641160283820938</v>
       </c>
       <c r="G22">
-        <v>0.0007589794748902312</v>
+        <v>0.0008427649916268226</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.002377633472051</v>
       </c>
       <c r="J22">
-        <v>0.203263537421897</v>
+        <v>0.1000731411703129</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.58626849479532</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2212879760485436</v>
       </c>
       <c r="M22">
-        <v>1.237718065568131</v>
+        <v>0.3040363842029095</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.646137080676425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.409125482312731</v>
+        <v>1.347060353962604</v>
       </c>
       <c r="C23">
-        <v>1.028802609538531</v>
+        <v>0.2563745462441318</v>
       </c>
       <c r="D23">
-        <v>0.0294699297656571</v>
+        <v>0.005450323336720686</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.650896634637576</v>
+        <v>4.538496547020941</v>
       </c>
       <c r="G23">
-        <v>0.0007627869368030998</v>
+        <v>0.0008458000498631996</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.942014812273385</v>
       </c>
       <c r="J23">
-        <v>0.1977852736965531</v>
+        <v>0.09961017464173949</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.525271786480658</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2156556273436365</v>
       </c>
       <c r="M23">
-        <v>1.188392623469397</v>
+        <v>0.2935851253542339</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.556069955329292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.720507936746458</v>
+        <v>1.153330902377093</v>
       </c>
       <c r="C24">
-        <v>0.8680019926343618</v>
+        <v>0.216181521532036</v>
       </c>
       <c r="D24">
-        <v>0.02693599479594866</v>
+        <v>0.005084791108092901</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.193383007633798</v>
+        <v>4.160686008321647</v>
       </c>
       <c r="G24">
-        <v>0.0007772784847518209</v>
+        <v>0.0008574400373343085</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.719951231140243</v>
       </c>
       <c r="J24">
-        <v>0.1780136753252748</v>
+        <v>0.09795638350755453</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.299462902189532</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1949731399912338</v>
       </c>
       <c r="M24">
-        <v>1.006123002290188</v>
+        <v>0.2549863642008461</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.230460557107875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.00443445299851</v>
+        <v>0.9524425662420413</v>
       </c>
       <c r="C25">
-        <v>0.700529482410019</v>
+        <v>0.1743905012002216</v>
       </c>
       <c r="D25">
-        <v>0.02428091716326364</v>
+        <v>0.004683551953524656</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.736539106466466</v>
+        <v>3.773188322791981</v>
       </c>
       <c r="G25">
-        <v>0.0007931763551338376</v>
+        <v>0.000870360404056695</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.492340998267252</v>
       </c>
       <c r="J25">
-        <v>0.158411095870342</v>
+        <v>0.09636467513469782</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.065077478355335</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1738703871575069</v>
       </c>
       <c r="M25">
-        <v>0.8171612332282692</v>
+        <v>0.2151308575460931</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.906069585966392</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8100290767939953</v>
+        <v>1.064621547438719</v>
       </c>
       <c r="C2">
-        <v>0.1446157564343622</v>
+        <v>0.05893764867289519</v>
       </c>
       <c r="D2">
-        <v>0.004378564475453928</v>
+        <v>0.005120677384145012</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.501932793465159</v>
+        <v>4.817453757367403</v>
       </c>
       <c r="G2">
-        <v>0.0008802381187010903</v>
+        <v>0.002663311908646904</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.333122139260723</v>
+        <v>3.169288271331212</v>
       </c>
       <c r="J2">
-        <v>0.09533924803697857</v>
+        <v>0.1962860345525819</v>
       </c>
       <c r="K2">
-        <v>0.8986485816375875</v>
+        <v>0.9242871356489104</v>
       </c>
       <c r="L2">
-        <v>0.1592065160993883</v>
+        <v>0.3500053865620742</v>
       </c>
       <c r="M2">
-        <v>0.1870234934141166</v>
+        <v>0.3086840539010964</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7163088102098527</v>
+        <v>1.051262052412625</v>
       </c>
       <c r="C3">
-        <v>0.1249061025066993</v>
+        <v>0.0536964426258919</v>
       </c>
       <c r="D3">
-        <v>0.004164502240966428</v>
+        <v>0.005181647594255878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.325471994444683</v>
+        <v>4.776777517775415</v>
       </c>
       <c r="G3">
-        <v>0.0008871823417201385</v>
+        <v>0.002667603283948381</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.229608542610023</v>
+        <v>3.143608035752749</v>
       </c>
       <c r="J3">
-        <v>0.09472742732951289</v>
+        <v>0.196287625653369</v>
       </c>
       <c r="K3">
-        <v>0.7889254888224002</v>
+        <v>0.9046665186712062</v>
       </c>
       <c r="L3">
-        <v>0.1497417720955099</v>
+        <v>0.349776915524771</v>
       </c>
       <c r="M3">
-        <v>0.168618756596981</v>
+        <v>0.3066444472197141</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6599543456598269</v>
+        <v>1.043799320071685</v>
       </c>
       <c r="C4">
-        <v>0.1129907004314106</v>
+        <v>0.05051067835978529</v>
       </c>
       <c r="D4">
-        <v>0.004029054703736712</v>
+        <v>0.005225134436640744</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.220344773623424</v>
+        <v>4.752988635236477</v>
       </c>
       <c r="G4">
-        <v>0.0008915762322102992</v>
+        <v>0.002670378449959713</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.167969221486587</v>
+        <v>3.128492370065374</v>
       </c>
       <c r="J4">
-        <v>0.09439029075415917</v>
+        <v>0.1963080200593375</v>
       </c>
       <c r="K4">
-        <v>0.7228408184822683</v>
+        <v>0.8932858180698702</v>
       </c>
       <c r="L4">
-        <v>0.1441423386090221</v>
+        <v>0.349783151804175</v>
       </c>
       <c r="M4">
-        <v>0.1575977176495797</v>
+        <v>0.3055743500323977</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6372631310420331</v>
+        <v>1.040944534901087</v>
       </c>
       <c r="C5">
-        <v>0.1081758443433785</v>
+        <v>0.04922051551383788</v>
       </c>
       <c r="D5">
-        <v>0.003972801994503783</v>
+        <v>0.005244380404027638</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.178257629914413</v>
+        <v>4.743592717174806</v>
       </c>
       <c r="G5">
-        <v>0.0008934004263604031</v>
+        <v>0.002671544730757571</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.143299333360176</v>
+        <v>3.122496450726274</v>
       </c>
       <c r="J5">
-        <v>0.09426225259693588</v>
+        <v>0.1963212194635382</v>
       </c>
       <c r="K5">
-        <v>0.696203208486935</v>
+        <v>0.888815760176854</v>
       </c>
       <c r="L5">
-        <v>0.1419109107520811</v>
+        <v>0.3498226076385933</v>
       </c>
       <c r="M5">
-        <v>0.1531716757930326</v>
+        <v>0.3051841729131439</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6335110867600804</v>
+        <v>1.040481761805239</v>
       </c>
       <c r="C6">
-        <v>0.1073786328907005</v>
+        <v>0.04900676971384144</v>
       </c>
       <c r="D6">
-        <v>0.003963396180087564</v>
+        <v>0.005247668366351377</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.171312984267345</v>
+        <v>4.742050542365419</v>
       </c>
       <c r="G6">
-        <v>0.0008937053907549184</v>
+        <v>0.002671740531014659</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.139229067154304</v>
+        <v>3.121510724242086</v>
       </c>
       <c r="J6">
-        <v>0.09424154701497045</v>
+        <v>0.1963237066414116</v>
       </c>
       <c r="K6">
-        <v>0.6917968523913487</v>
+        <v>0.8880836400975198</v>
       </c>
       <c r="L6">
-        <v>0.141543345607694</v>
+        <v>0.3498313909054929</v>
       </c>
       <c r="M6">
-        <v>0.1524405233970789</v>
+        <v>0.3051221584922814</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6596472484206117</v>
+        <v>1.043760064631925</v>
       </c>
       <c r="C7">
-        <v>0.1129256082975445</v>
+        <v>0.05049324622797258</v>
       </c>
       <c r="D7">
-        <v>0.004028300397152407</v>
+        <v>0.005225387816897964</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.219774194950659</v>
+        <v>4.752860711180361</v>
       </c>
       <c r="G7">
-        <v>0.000891600696524874</v>
+        <v>0.002670394035303565</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.167634741305932</v>
+        <v>3.128410843828092</v>
       </c>
       <c r="J7">
-        <v>0.09438852657121544</v>
+        <v>0.196308178270332</v>
       </c>
       <c r="K7">
-        <v>0.7224804296202194</v>
+        <v>0.893224854295454</v>
       </c>
       <c r="L7">
-        <v>0.1441120444866115</v>
+        <v>0.3497835343587923</v>
       </c>
       <c r="M7">
-        <v>0.1575377694133344</v>
+        <v>0.3055689020379688</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7774513357816204</v>
+        <v>1.05986173421249</v>
       </c>
       <c r="C8">
-        <v>0.1377773638706117</v>
+        <v>0.05712371835302577</v>
       </c>
       <c r="D8">
-        <v>0.004305557653767167</v>
+        <v>0.005140445927821702</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.440385341784975</v>
+        <v>4.803182248659155</v>
       </c>
       <c r="G8">
-        <v>0.0008826060608497261</v>
+        <v>0.002664762535021457</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.297011434145119</v>
+        <v>3.16029828703978</v>
       </c>
       <c r="J8">
-        <v>0.09512008540331252</v>
+        <v>0.196282556461469</v>
       </c>
       <c r="K8">
-        <v>0.8605299171317142</v>
+        <v>0.9173836699124251</v>
       </c>
       <c r="L8">
-        <v>0.1558972639659686</v>
+        <v>0.349896241503906</v>
       </c>
       <c r="M8">
-        <v>0.1806162920574117</v>
+        <v>0.3079430176436659</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019167105908082</v>
+        <v>1.097301926579121</v>
       </c>
       <c r="C9">
-        <v>0.1882914167884309</v>
+        <v>0.07038687010046374</v>
       </c>
       <c r="D9">
-        <v>0.00481998211129131</v>
+        <v>0.005021755935569416</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.901335074017993</v>
+        <v>4.911289945927336</v>
       </c>
       <c r="G9">
-        <v>0.0008659547349535615</v>
+        <v>0.00265482680055816</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.567593642375513</v>
+        <v>3.228014675919937</v>
       </c>
       <c r="J9">
-        <v>0.09687690386305192</v>
+        <v>0.1963861720743445</v>
       </c>
       <c r="K9">
-        <v>1.142965987991744</v>
+        <v>0.9700474021820185</v>
       </c>
       <c r="L9">
-        <v>0.1808328530195027</v>
+        <v>0.3512770982223969</v>
       </c>
       <c r="M9">
-        <v>0.2283456247421576</v>
+        <v>0.3140421002911609</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.205203783081487</v>
+        <v>1.128380596269096</v>
       </c>
       <c r="C10">
-        <v>0.2269499096705516</v>
+        <v>0.08029697193255458</v>
       </c>
       <c r="D10">
-        <v>0.005184358069119099</v>
+        <v>0.004963582726777105</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.261494754582543</v>
+        <v>4.996493584983284</v>
       </c>
       <c r="G10">
-        <v>0.0008542545334031537</v>
+        <v>0.00264819502988069</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.779190494850425</v>
+        <v>3.28094916980848</v>
       </c>
       <c r="J10">
-        <v>0.09838918613923653</v>
+        <v>0.1965558853105094</v>
       </c>
       <c r="K10">
-        <v>1.359940339428817</v>
+        <v>1.011970544735163</v>
       </c>
       <c r="L10">
-        <v>0.2004835551280308</v>
+        <v>0.3529956346380914</v>
       </c>
       <c r="M10">
-        <v>0.26530802798057</v>
+        <v>0.3194008647576823</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.292147975612465</v>
+        <v>1.143294189931908</v>
       </c>
       <c r="C11">
-        <v>0.2449872565074429</v>
+        <v>0.08484281030388274</v>
       </c>
       <c r="D11">
-        <v>0.005348359496881727</v>
+        <v>0.00494338933159888</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.431052731250531</v>
+        <v>5.036516520812569</v>
       </c>
       <c r="G11">
-        <v>0.000849031005701484</v>
+        <v>0.002645321580581728</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.878850519267431</v>
+        <v>3.305726881423496</v>
       </c>
       <c r="J11">
-        <v>0.09913143922030798</v>
+        <v>0.1966533746423735</v>
       </c>
       <c r="K11">
-        <v>1.461280187916913</v>
+        <v>1.031746122981048</v>
       </c>
       <c r="L11">
-        <v>0.2097659562598579</v>
+        <v>0.3539297215195205</v>
       </c>
       <c r="M11">
-        <v>0.2826309846697725</v>
+        <v>0.3220289343403948</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.325448421295903</v>
+        <v>1.149053001950534</v>
       </c>
       <c r="C12">
-        <v>0.2518931377843785</v>
+        <v>0.08656972017254816</v>
       </c>
       <c r="D12">
-        <v>0.005410329854369067</v>
+        <v>0.004936641518455076</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.496178507687461</v>
+        <v>5.051854180877115</v>
       </c>
       <c r="G12">
-        <v>0.000847065704969179</v>
+        <v>0.002644253980165576</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.917135664374314</v>
+        <v>3.315210140863584</v>
       </c>
       <c r="J12">
-        <v>0.09942088741343014</v>
+        <v>0.1966932039405656</v>
       </c>
       <c r="K12">
-        <v>1.500087497293691</v>
+        <v>1.03933597964047</v>
       </c>
       <c r="L12">
-        <v>0.2133352692668211</v>
+        <v>0.3543052804613609</v>
       </c>
       <c r="M12">
-        <v>0.2892727390260177</v>
+        <v>0.323051437090939</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.318259083952114</v>
+        <v>1.147807789102558</v>
       </c>
       <c r="C13">
-        <v>0.2504022922502713</v>
+        <v>0.08619755334817114</v>
       </c>
       <c r="D13">
-        <v>0.005396987253018182</v>
+        <v>0.004938054839785266</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.482110064398881</v>
+        <v>5.048542851069953</v>
       </c>
       <c r="G13">
-        <v>0.0008474884263835696</v>
+        <v>0.002644482996561778</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.90886502558314</v>
+        <v>3.313163279736358</v>
       </c>
       <c r="J13">
-        <v>0.09935816761789695</v>
+        <v>0.1966844965448935</v>
       </c>
       <c r="K13">
-        <v>1.491709530146636</v>
+        <v>1.037696864513293</v>
       </c>
       <c r="L13">
-        <v>0.2125640566893594</v>
+        <v>0.3542234267450084</v>
       </c>
       <c r="M13">
-        <v>0.2878385251389304</v>
+        <v>0.3228300091718523</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.294879810546291</v>
+        <v>1.143765740177116</v>
       </c>
       <c r="C14">
-        <v>0.2455538289356696</v>
+        <v>0.0849847735337903</v>
       </c>
       <c r="D14">
-        <v>0.005353459756939571</v>
+        <v>0.004942816183394427</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.436391692904976</v>
+        <v>5.037774713940934</v>
       </c>
       <c r="G14">
-        <v>0.00084886907299173</v>
+        <v>0.002645233337867573</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.881988973111845</v>
+        <v>3.306505060172967</v>
       </c>
       <c r="J14">
-        <v>0.09915508106815807</v>
+        <v>0.1966565930860931</v>
       </c>
       <c r="K14">
-        <v>1.46446390619036</v>
+        <v>1.032368515552548</v>
       </c>
       <c r="L14">
-        <v>0.2100584882545178</v>
+        <v>0.3539601816176656</v>
       </c>
       <c r="M14">
-        <v>0.2831757103379644</v>
+        <v>0.3221125092713706</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.280609741382278</v>
+        <v>1.141304364909701</v>
       </c>
       <c r="C15">
-        <v>0.2425941756968655</v>
+        <v>0.08424262948955175</v>
       </c>
       <c r="D15">
-        <v>0.005326784402843288</v>
+        <v>0.004945849641700306</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.408510393231893</v>
+        <v>5.031202605483799</v>
       </c>
       <c r="G15">
-        <v>0.0008497163706796979</v>
+        <v>0.002645695611876192</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.865599503377538</v>
+        <v>3.302439798729722</v>
       </c>
       <c r="J15">
-        <v>0.09903179275621099</v>
+        <v>0.1966398805215874</v>
       </c>
       <c r="K15">
-        <v>1.447833110154221</v>
+        <v>1.029117935905731</v>
       </c>
       <c r="L15">
-        <v>0.2085309768932433</v>
+        <v>0.3538017788199284</v>
       </c>
       <c r="M15">
-        <v>0.2803305469459616</v>
+        <v>0.3216765746270553</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.199571995253081</v>
+        <v>1.127421551188917</v>
       </c>
       <c r="C16">
-        <v>0.2257810925136283</v>
+        <v>0.08000065587197014</v>
       </c>
       <c r="D16">
-        <v>0.005173614598431797</v>
+        <v>0.004965028354169121</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.250536777243212</v>
+        <v>4.993903428859682</v>
       </c>
       <c r="G16">
-        <v>0.0008545977699530228</v>
+        <v>0.002648385692649272</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.77275068250168</v>
+        <v>3.279343939115108</v>
       </c>
       <c r="J16">
-        <v>0.09834181795108776</v>
+        <v>0.1965499219399227</v>
       </c>
       <c r="K16">
-        <v>1.353375008152682</v>
+        <v>1.010692337897865</v>
       </c>
       <c r="L16">
-        <v>0.1998842439589552</v>
+        <v>0.3529376495019605</v>
       </c>
       <c r="M16">
-        <v>0.2641868978729889</v>
+        <v>0.319232939132128</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.150480641955681</v>
+        <v>1.119103442816993</v>
       </c>
       <c r="C17">
-        <v>0.2155896370736912</v>
+        <v>0.07740805125926897</v>
       </c>
       <c r="D17">
-        <v>0.005079278973747492</v>
+        <v>0.004978397860025296</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.155154985099017</v>
+        <v>4.971345293056203</v>
       </c>
       <c r="G17">
-        <v>0.0008576166743772751</v>
+        <v>0.00265007261773048</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.71670126311048</v>
+        <v>3.265354157069495</v>
       </c>
       <c r="J17">
-        <v>0.09793283498120786</v>
+        <v>0.1964999274855259</v>
       </c>
       <c r="K17">
-        <v>1.296139435115322</v>
+        <v>0.9995692496628124</v>
       </c>
       <c r="L17">
-        <v>0.1946710057150511</v>
+        <v>0.3524465013001432</v>
       </c>
       <c r="M17">
-        <v>0.2544195379570517</v>
+        <v>0.3177825549459605</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.122459650374992</v>
+        <v>1.114392115445582</v>
       </c>
       <c r="C18">
-        <v>0.2097695716189492</v>
+        <v>0.07592039572530496</v>
       </c>
       <c r="D18">
-        <v>0.005024846217827061</v>
+        <v>0.004986677950098439</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.100826016045716</v>
+        <v>4.958489354093871</v>
       </c>
       <c r="G18">
-        <v>0.0008593624797073172</v>
+        <v>0.00265105639396245</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.684779778354994</v>
+        <v>3.257373250287031</v>
       </c>
       <c r="J18">
-        <v>0.0977026738108222</v>
+        <v>0.1964730816965847</v>
       </c>
       <c r="K18">
-        <v>1.263463798886988</v>
+        <v>0.9932378590098949</v>
       </c>
       <c r="L18">
-        <v>0.1917044709987721</v>
+        <v>0.3521783462244201</v>
       </c>
       <c r="M18">
-        <v>0.248848904669277</v>
+        <v>0.3169662516505163</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.113007900308588</v>
+        <v>1.112809489701107</v>
       </c>
       <c r="C19">
-        <v>0.2078058692839164</v>
+        <v>0.07541730702783411</v>
       </c>
       <c r="D19">
-        <v>0.005006383130387704</v>
+        <v>0.004989582912649837</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.082519794681588</v>
+        <v>4.954156970814978</v>
       </c>
       <c r="G19">
-        <v>0.00085995523896365</v>
+        <v>0.002651391805678396</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.6740244613258</v>
+        <v>3.254682321921521</v>
       </c>
       <c r="J19">
-        <v>0.09762560051273539</v>
+        <v>0.1964643203158403</v>
       </c>
       <c r="K19">
-        <v>1.252440900373159</v>
+        <v>0.9911055498861003</v>
       </c>
       <c r="L19">
-        <v>0.1907054040984448</v>
+        <v>0.3520900184111042</v>
       </c>
       <c r="M19">
-        <v>0.2469706527321556</v>
+        <v>0.316692944922174</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.155683940437598</v>
+        <v>1.119981362897789</v>
       </c>
       <c r="C20">
-        <v>0.2166701363910875</v>
+        <v>0.07768367127363263</v>
       </c>
       <c r="D20">
-        <v>0.005089338308218672</v>
+        <v>0.004976913578607522</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.16525280629736</v>
+        <v>4.973734337744986</v>
       </c>
       <c r="G20">
-        <v>0.0008572943433147184</v>
+        <v>0.002649891645204724</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.722634653706308</v>
+        <v>3.266836597900735</v>
       </c>
       <c r="J20">
-        <v>0.09797584275732873</v>
+        <v>0.1965050518701723</v>
       </c>
       <c r="K20">
-        <v>1.302206562505177</v>
+        <v>1.000746458270356</v>
       </c>
       <c r="L20">
-        <v>0.1952226196988249</v>
+        <v>0.3524973011445667</v>
       </c>
       <c r="M20">
-        <v>0.2554543344209215</v>
+        <v>0.31793509668098</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.301736280060965</v>
+        <v>1.144949967225955</v>
       </c>
       <c r="C21">
-        <v>0.246975800038399</v>
+        <v>0.08534084646129259</v>
       </c>
       <c r="D21">
-        <v>0.005366247410691471</v>
+        <v>0.00494139328307952</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.449794569444634</v>
+        <v>5.040932640290009</v>
       </c>
       <c r="G21">
-        <v>0.0008484632105188639</v>
+        <v>0.002645012388506438</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.889867822286064</v>
+        <v>3.308458012342015</v>
       </c>
       <c r="J21">
-        <v>0.09921450050826053</v>
+        <v>0.1966647100108183</v>
       </c>
       <c r="K21">
-        <v>1.472454430557292</v>
+        <v>1.033930832503557</v>
       </c>
       <c r="L21">
-        <v>0.2107929199837599</v>
+        <v>0.3540369108389569</v>
       </c>
       <c r="M21">
-        <v>0.2845429941214803</v>
+        <v>0.3223225156822096</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.399408395093474</v>
+        <v>1.161917386223962</v>
       </c>
       <c r="C22">
-        <v>0.2672283173464791</v>
+        <v>0.09037734658011232</v>
       </c>
       <c r="D22">
-        <v>0.005546516091555986</v>
+        <v>0.004923417538565289</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.641160283820938</v>
+        <v>5.085910617346826</v>
       </c>
       <c r="G22">
-        <v>0.0008427649916268226</v>
+        <v>0.002641943029027348</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.002377633472051</v>
+        <v>3.336245754895671</v>
       </c>
       <c r="J22">
-        <v>0.1000731411703129</v>
+        <v>0.1967860281466791</v>
       </c>
       <c r="K22">
-        <v>1.58626849479532</v>
+        <v>1.056209031621279</v>
       </c>
       <c r="L22">
-        <v>0.2212879760485436</v>
+        <v>0.3551704097077391</v>
       </c>
       <c r="M22">
-        <v>0.3040363842029095</v>
+        <v>0.3253491029637914</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.347060353962604</v>
+        <v>1.152802235034073</v>
       </c>
       <c r="C23">
-        <v>0.2563745462441318</v>
+        <v>0.08768630825883861</v>
       </c>
       <c r="D23">
-        <v>0.005450323336720686</v>
+        <v>0.004932533026231312</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.538496547020941</v>
+        <v>5.061807976684946</v>
       </c>
       <c r="G23">
-        <v>0.0008458000498631996</v>
+        <v>0.002643570302289626</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.942014812273385</v>
+        <v>3.321361261220261</v>
       </c>
       <c r="J23">
-        <v>0.09961017464173949</v>
+        <v>0.1967197270110148</v>
       </c>
       <c r="K23">
-        <v>1.525271786480658</v>
+        <v>1.044264736013702</v>
       </c>
       <c r="L23">
-        <v>0.2156556273436365</v>
+        <v>0.3545538147302807</v>
       </c>
       <c r="M23">
-        <v>0.2935851253542339</v>
+        <v>0.3237192134196221</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.153330902377093</v>
+        <v>1.119584234477145</v>
       </c>
       <c r="C24">
-        <v>0.216181521532036</v>
+        <v>0.07755905454112622</v>
       </c>
       <c r="D24">
-        <v>0.005084791108092901</v>
+        <v>0.00497758277257887</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.160686008321647</v>
+        <v>4.972653898528222</v>
       </c>
       <c r="G24">
-        <v>0.0008574400373343085</v>
+        <v>0.002649973419388276</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.719951231140243</v>
+        <v>3.266166193248438</v>
       </c>
       <c r="J24">
-        <v>0.09795638350755453</v>
+        <v>0.1965027292280439</v>
       </c>
       <c r="K24">
-        <v>1.299462902189532</v>
+        <v>1.000214044704848</v>
       </c>
       <c r="L24">
-        <v>0.1949731399912338</v>
+        <v>0.3524742902595932</v>
       </c>
       <c r="M24">
-        <v>0.2549863642008461</v>
+        <v>0.3178660779162001</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9524425662420413</v>
+        <v>1.086545927406775</v>
       </c>
       <c r="C25">
-        <v>0.1743905012002216</v>
+        <v>0.06677022777914488</v>
       </c>
       <c r="D25">
-        <v>0.004683551953524656</v>
+        <v>0.005048755653739079</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.773188322791981</v>
+        <v>4.881031626878297</v>
       </c>
       <c r="G25">
-        <v>0.000870360404056695</v>
+        <v>0.002657396850617915</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.492340998267252</v>
+        <v>3.209138193912452</v>
       </c>
       <c r="J25">
-        <v>0.09636467513469782</v>
+        <v>0.1963416914170537</v>
       </c>
       <c r="K25">
-        <v>1.065077478355335</v>
+        <v>0.9552335936506893</v>
       </c>
       <c r="L25">
-        <v>0.1738703871575069</v>
+        <v>0.3507796895964077</v>
       </c>
       <c r="M25">
-        <v>0.2151308575460931</v>
+        <v>0.3122378379117627</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.064621547438719</v>
+        <v>0.8100290767939669</v>
       </c>
       <c r="C2">
-        <v>0.05893764867289519</v>
+        <v>0.1446157564345754</v>
       </c>
       <c r="D2">
-        <v>0.005120677384145012</v>
+        <v>0.004378564475684854</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.817453757367403</v>
+        <v>3.501932793465159</v>
       </c>
       <c r="G2">
-        <v>0.002663311908646904</v>
+        <v>0.0008802381188195878</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>3.169288271331212</v>
+        <v>2.333122139260709</v>
       </c>
       <c r="J2">
-        <v>0.1962860345525819</v>
+        <v>0.09533924803702831</v>
       </c>
       <c r="K2">
-        <v>0.9242871356489104</v>
+        <v>0.8986485816375307</v>
       </c>
       <c r="L2">
-        <v>0.3500053865620742</v>
+        <v>0.159206516099367</v>
       </c>
       <c r="M2">
-        <v>0.3086840539010964</v>
+        <v>0.1870234934141166</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051262052412625</v>
+        <v>0.7163088102098527</v>
       </c>
       <c r="C3">
-        <v>0.0536964426258919</v>
+        <v>0.1249061025069125</v>
       </c>
       <c r="D3">
-        <v>0.005181647594255878</v>
+        <v>0.004164502241049917</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.776777517775415</v>
+        <v>3.325471994444726</v>
       </c>
       <c r="G3">
-        <v>0.002667603283948381</v>
+        <v>0.0008871823416544163</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3.143608035752749</v>
+        <v>2.229608542609995</v>
       </c>
       <c r="J3">
-        <v>0.196287625653369</v>
+        <v>0.09472742732957329</v>
       </c>
       <c r="K3">
-        <v>0.9046665186712062</v>
+        <v>0.7889254888225139</v>
       </c>
       <c r="L3">
-        <v>0.349776915524771</v>
+        <v>0.1497417720955667</v>
       </c>
       <c r="M3">
-        <v>0.3066444472197141</v>
+        <v>0.1686187565969668</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.043799320071685</v>
+        <v>0.6599543456599122</v>
       </c>
       <c r="C4">
-        <v>0.05051067835978529</v>
+        <v>0.1129907004316237</v>
       </c>
       <c r="D4">
-        <v>0.005225134436640744</v>
+        <v>0.004029054703729607</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.752988635236477</v>
+        <v>3.22034477362341</v>
       </c>
       <c r="G4">
-        <v>0.002670378449959713</v>
+        <v>0.0008915762322200147</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>3.128492370065374</v>
+        <v>2.167969221486558</v>
       </c>
       <c r="J4">
-        <v>0.1963080200593375</v>
+        <v>0.0943902907542018</v>
       </c>
       <c r="K4">
-        <v>0.8932858180698702</v>
+        <v>0.7228408184821546</v>
       </c>
       <c r="L4">
-        <v>0.349783151804175</v>
+        <v>0.144142338608944</v>
       </c>
       <c r="M4">
-        <v>0.3055743500323977</v>
+        <v>0.1575977176495726</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.040944534901087</v>
+        <v>0.6372631310418626</v>
       </c>
       <c r="C5">
-        <v>0.04922051551383788</v>
+        <v>0.1081758443437906</v>
       </c>
       <c r="D5">
-        <v>0.005244380404027638</v>
+        <v>0.003972801994126307</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.743592717174806</v>
+        <v>3.178257629914398</v>
       </c>
       <c r="G5">
-        <v>0.002671544730757571</v>
+        <v>0.0008934004262984509</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>3.122496450726274</v>
+        <v>2.143299333360204</v>
       </c>
       <c r="J5">
-        <v>0.1963212194635382</v>
+        <v>0.09426225259703003</v>
       </c>
       <c r="K5">
-        <v>0.888815760176854</v>
+        <v>0.6962032084869634</v>
       </c>
       <c r="L5">
-        <v>0.3498226076385933</v>
+        <v>0.1419109107520526</v>
       </c>
       <c r="M5">
-        <v>0.3051841729131439</v>
+        <v>0.1531716757930432</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.040481761805239</v>
+        <v>0.6335110867601941</v>
       </c>
       <c r="C6">
-        <v>0.04900676971384144</v>
+        <v>0.1073786328907005</v>
       </c>
       <c r="D6">
-        <v>0.005247668366351377</v>
+        <v>0.003963396179985423</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.742050542365419</v>
+        <v>3.171312984267374</v>
       </c>
       <c r="G6">
-        <v>0.002671740531014659</v>
+        <v>0.0008937053907472055</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>3.121510724242086</v>
+        <v>2.139229067154318</v>
       </c>
       <c r="J6">
-        <v>0.1963237066414116</v>
+        <v>0.09424154701491716</v>
       </c>
       <c r="K6">
-        <v>0.8880836400975198</v>
+        <v>0.6917968523913771</v>
       </c>
       <c r="L6">
-        <v>0.3498313909054929</v>
+        <v>0.1415433456077508</v>
       </c>
       <c r="M6">
-        <v>0.3051221584922814</v>
+        <v>0.1524405233970931</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.043760064631925</v>
+        <v>0.6596472484206117</v>
       </c>
       <c r="C7">
-        <v>0.05049324622797258</v>
+        <v>0.1129256082975729</v>
       </c>
       <c r="D7">
-        <v>0.005225387816897964</v>
+        <v>0.004028300396913487</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.752860711180361</v>
+        <v>3.219774194950631</v>
       </c>
       <c r="G7">
-        <v>0.002670394035303565</v>
+        <v>0.0008916006965781415</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>3.128410843828092</v>
+        <v>2.167634741305946</v>
       </c>
       <c r="J7">
-        <v>0.196308178270332</v>
+        <v>0.09438852657114083</v>
       </c>
       <c r="K7">
-        <v>0.893224854295454</v>
+        <v>0.7224804296201626</v>
       </c>
       <c r="L7">
-        <v>0.3497835343587923</v>
+        <v>0.1441120444865902</v>
       </c>
       <c r="M7">
-        <v>0.3055689020379688</v>
+        <v>0.1575377694133202</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05986173421249</v>
+        <v>0.7774513357815636</v>
       </c>
       <c r="C8">
-        <v>0.05712371835302577</v>
+        <v>0.1377773638703559</v>
       </c>
       <c r="D8">
-        <v>0.005140445927821702</v>
+        <v>0.004305557653758285</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.803182248659155</v>
+        <v>3.440385341784989</v>
       </c>
       <c r="G8">
-        <v>0.002664762535021457</v>
+        <v>0.0008826060607275937</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.16029828703978</v>
+        <v>2.297011434145119</v>
       </c>
       <c r="J8">
-        <v>0.196282556461469</v>
+        <v>0.09512008540330186</v>
       </c>
       <c r="K8">
-        <v>0.9173836699124251</v>
+        <v>0.8605299171317995</v>
       </c>
       <c r="L8">
-        <v>0.349896241503906</v>
+        <v>0.1558972639660681</v>
       </c>
       <c r="M8">
-        <v>0.3079430176436659</v>
+        <v>0.1806162920574117</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.097301926579121</v>
+        <v>1.019167105908082</v>
       </c>
       <c r="C9">
-        <v>0.07038687010046374</v>
+        <v>0.1882914167881182</v>
       </c>
       <c r="D9">
-        <v>0.005021755935569416</v>
+        <v>0.004819982111239796</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.911289945927336</v>
+        <v>3.901335074017908</v>
       </c>
       <c r="G9">
-        <v>0.00265482680055816</v>
+        <v>0.0008659547350104939</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.228014675919937</v>
+        <v>2.567593642375542</v>
       </c>
       <c r="J9">
-        <v>0.1963861720743445</v>
+        <v>0.09687690386300574</v>
       </c>
       <c r="K9">
-        <v>0.9700474021820185</v>
+        <v>1.142965987991715</v>
       </c>
       <c r="L9">
-        <v>0.3512770982223969</v>
+        <v>0.1808328530193393</v>
       </c>
       <c r="M9">
-        <v>0.3140421002911609</v>
+        <v>0.2283456247421434</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.128380596269096</v>
+        <v>1.205203783081345</v>
       </c>
       <c r="C10">
-        <v>0.08029697193255458</v>
+        <v>0.2269499096704948</v>
       </c>
       <c r="D10">
-        <v>0.004963582726777105</v>
+        <v>0.005184358069559636</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.996493584983284</v>
+        <v>4.261494754582515</v>
       </c>
       <c r="G10">
-        <v>0.00264819502988069</v>
+        <v>0.0008542545333963664</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.28094916980848</v>
+        <v>2.779190494850425</v>
       </c>
       <c r="J10">
-        <v>0.1965558853105094</v>
+        <v>0.09838918613928627</v>
       </c>
       <c r="K10">
-        <v>1.011970544735163</v>
+        <v>1.359940339428732</v>
       </c>
       <c r="L10">
-        <v>0.3529956346380914</v>
+        <v>0.2004835551280735</v>
       </c>
       <c r="M10">
-        <v>0.3194008647576823</v>
+        <v>0.2653080279805664</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.143294189931908</v>
+        <v>1.292147975612352</v>
       </c>
       <c r="C11">
-        <v>0.08484281030388274</v>
+        <v>0.2449872565074145</v>
       </c>
       <c r="D11">
-        <v>0.00494338933159888</v>
+        <v>0.005348359497018507</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.036516520812569</v>
+        <v>4.431052731250531</v>
       </c>
       <c r="G11">
-        <v>0.002645321580581728</v>
+        <v>0.0008490310056991744</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>3.305726881423496</v>
+        <v>2.878850519267417</v>
       </c>
       <c r="J11">
-        <v>0.1966533746423735</v>
+        <v>0.09913143922029377</v>
       </c>
       <c r="K11">
-        <v>1.031746122981048</v>
+        <v>1.461280187917026</v>
       </c>
       <c r="L11">
-        <v>0.3539297215195205</v>
+        <v>0.2097659562600143</v>
       </c>
       <c r="M11">
-        <v>0.3220289343403948</v>
+        <v>0.2826309846697725</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.149053001950534</v>
+        <v>1.325448421295874</v>
       </c>
       <c r="C12">
-        <v>0.08656972017254816</v>
+        <v>0.2518931377843785</v>
       </c>
       <c r="D12">
-        <v>0.004936641518455076</v>
+        <v>0.005410329854374396</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.051854180877115</v>
+        <v>4.496178507687489</v>
       </c>
       <c r="G12">
-        <v>0.002644253980165576</v>
+        <v>0.0008470657049115315</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3.315210140863584</v>
+        <v>2.917135664374385</v>
       </c>
       <c r="J12">
-        <v>0.1966932039405656</v>
+        <v>0.09942088741330579</v>
       </c>
       <c r="K12">
-        <v>1.03933597964047</v>
+        <v>1.500087497293833</v>
       </c>
       <c r="L12">
-        <v>0.3543052804613609</v>
+        <v>0.213335269266949</v>
       </c>
       <c r="M12">
-        <v>0.323051437090939</v>
+        <v>0.2892727390260035</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.147807789102558</v>
+        <v>1.318259083951801</v>
       </c>
       <c r="C13">
-        <v>0.08619755334817114</v>
+        <v>0.2504022922500155</v>
       </c>
       <c r="D13">
-        <v>0.004938054839785266</v>
+        <v>0.005396987253142527</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.048542851069953</v>
+        <v>4.48211006439891</v>
       </c>
       <c r="G13">
-        <v>0.002644482996561778</v>
+        <v>0.0008474884265128324</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>3.313163279736358</v>
+        <v>2.90886502558314</v>
       </c>
       <c r="J13">
-        <v>0.1966844965448935</v>
+        <v>0.09935816761798577</v>
       </c>
       <c r="K13">
-        <v>1.037696864513293</v>
+        <v>1.491709530146636</v>
       </c>
       <c r="L13">
-        <v>0.3542234267450084</v>
+        <v>0.2125640566893452</v>
       </c>
       <c r="M13">
-        <v>0.3228300091718523</v>
+        <v>0.2878385251389304</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.143765740177116</v>
+        <v>1.294879810546377</v>
       </c>
       <c r="C14">
-        <v>0.0849847735337903</v>
+        <v>0.2455538289351296</v>
       </c>
       <c r="D14">
-        <v>0.004942816183394427</v>
+        <v>0.005353459756376466</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.037774713940934</v>
+        <v>4.436391692905005</v>
       </c>
       <c r="G14">
-        <v>0.002645233337867573</v>
+        <v>0.0008488690729269676</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3.306505060172967</v>
+        <v>2.881988973111845</v>
       </c>
       <c r="J14">
-        <v>0.1966565930860931</v>
+        <v>0.09915508106815452</v>
       </c>
       <c r="K14">
-        <v>1.032368515552548</v>
+        <v>1.464463906190332</v>
       </c>
       <c r="L14">
-        <v>0.3539601816176656</v>
+        <v>0.2100584882546457</v>
       </c>
       <c r="M14">
-        <v>0.3221125092713706</v>
+        <v>0.2831757103379928</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.141304364909701</v>
+        <v>1.280609741382165</v>
       </c>
       <c r="C15">
-        <v>0.08424262948955175</v>
+        <v>0.2425941756970644</v>
       </c>
       <c r="D15">
-        <v>0.004945849641700306</v>
+        <v>0.005326784402969409</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.031202605483799</v>
+        <v>4.408510393231921</v>
       </c>
       <c r="G15">
-        <v>0.002645695611876192</v>
+        <v>0.0008497163706766202</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>3.302439798729722</v>
+        <v>2.865599503377567</v>
       </c>
       <c r="J15">
-        <v>0.1966398805215874</v>
+        <v>0.09903179275611507</v>
       </c>
       <c r="K15">
-        <v>1.029117935905731</v>
+        <v>1.447833110154193</v>
       </c>
       <c r="L15">
-        <v>0.3538017788199284</v>
+        <v>0.2085309768931296</v>
       </c>
       <c r="M15">
-        <v>0.3216765746270553</v>
+        <v>0.2803305469459545</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.127421551188917</v>
+        <v>1.199571995253081</v>
       </c>
       <c r="C16">
-        <v>0.08000065587197014</v>
+        <v>0.2257810925134009</v>
       </c>
       <c r="D16">
-        <v>0.004965028354169121</v>
+        <v>0.005173614598648513</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.993903428859682</v>
+        <v>4.250536777243269</v>
       </c>
       <c r="G16">
-        <v>0.002648385692649272</v>
+        <v>0.0008545977699500428</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3.279343939115108</v>
+        <v>2.772750682501709</v>
       </c>
       <c r="J16">
-        <v>0.1965499219399227</v>
+        <v>0.09834181795097052</v>
       </c>
       <c r="K16">
-        <v>1.010692337897865</v>
+        <v>1.353375008152625</v>
       </c>
       <c r="L16">
-        <v>0.3529376495019605</v>
+        <v>0.1998842439589836</v>
       </c>
       <c r="M16">
-        <v>0.319232939132128</v>
+        <v>0.2641868978729676</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.119103442816993</v>
+        <v>1.150480641955767</v>
       </c>
       <c r="C17">
-        <v>0.07740805125926897</v>
+        <v>0.215589637073677</v>
       </c>
       <c r="D17">
-        <v>0.004978397860025296</v>
+        <v>0.00507927897324123</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.971345293056203</v>
+        <v>4.155154985099017</v>
       </c>
       <c r="G17">
-        <v>0.00265007261773048</v>
+        <v>0.0008576166744922365</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>3.265354157069495</v>
+        <v>2.716701263110465</v>
       </c>
       <c r="J17">
-        <v>0.1964999274855259</v>
+        <v>0.09793283498104799</v>
       </c>
       <c r="K17">
-        <v>0.9995692496628124</v>
+        <v>1.296139435115492</v>
       </c>
       <c r="L17">
-        <v>0.3524465013001432</v>
+        <v>0.1946710057151932</v>
       </c>
       <c r="M17">
-        <v>0.3177825549459605</v>
+        <v>0.2544195379570766</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.114392115445582</v>
+        <v>1.122459650375021</v>
       </c>
       <c r="C18">
-        <v>0.07592039572530496</v>
+        <v>0.2097695716188923</v>
       </c>
       <c r="D18">
-        <v>0.004986677950098439</v>
+        <v>0.005024846218013579</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.958489354093871</v>
+        <v>4.100826016045716</v>
       </c>
       <c r="G18">
-        <v>0.00265105639396245</v>
+        <v>0.0008593624796285432</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>3.257373250287031</v>
+        <v>2.684779778355008</v>
       </c>
       <c r="J18">
-        <v>0.1964730816965847</v>
+        <v>0.09770267381096076</v>
       </c>
       <c r="K18">
-        <v>0.9932378590098949</v>
+        <v>1.263463798886875</v>
       </c>
       <c r="L18">
-        <v>0.3521783462244201</v>
+        <v>0.1917044709986442</v>
       </c>
       <c r="M18">
-        <v>0.3169662516505163</v>
+        <v>0.2488489046692912</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.112809489701107</v>
+        <v>1.113007900308787</v>
       </c>
       <c r="C19">
-        <v>0.07541730702783411</v>
+        <v>0.2078058692841438</v>
       </c>
       <c r="D19">
-        <v>0.004989582912649837</v>
+        <v>0.005006383130631065</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.954156970814978</v>
+        <v>4.082519794681588</v>
       </c>
       <c r="G19">
-        <v>0.002651391805678396</v>
+        <v>0.0008599552387677671</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>3.254682321921521</v>
+        <v>2.674024461325786</v>
       </c>
       <c r="J19">
-        <v>0.1964643203158403</v>
+        <v>0.09762560051267499</v>
       </c>
       <c r="K19">
-        <v>0.9911055498861003</v>
+        <v>1.252440900373301</v>
       </c>
       <c r="L19">
-        <v>0.3520900184111042</v>
+        <v>0.1907054040983382</v>
       </c>
       <c r="M19">
-        <v>0.316692944922174</v>
+        <v>0.2469706527321449</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.119981362897789</v>
+        <v>1.155683940437711</v>
       </c>
       <c r="C20">
-        <v>0.07768367127363263</v>
+        <v>0.2166701363912722</v>
       </c>
       <c r="D20">
-        <v>0.004976913578607522</v>
+        <v>0.00508933830819025</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.973734337744986</v>
+        <v>4.165252806297332</v>
       </c>
       <c r="G20">
-        <v>0.002649891645204724</v>
+        <v>0.0008572943432302732</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>3.266836597900735</v>
+        <v>2.722634653706294</v>
       </c>
       <c r="J20">
-        <v>0.1965050518701723</v>
+        <v>0.09797584275721505</v>
       </c>
       <c r="K20">
-        <v>1.000746458270356</v>
+        <v>1.302206562505205</v>
       </c>
       <c r="L20">
-        <v>0.3524973011445667</v>
+        <v>0.195222619698832</v>
       </c>
       <c r="M20">
-        <v>0.31793509668098</v>
+        <v>0.255454334420893</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.144949967225955</v>
+        <v>1.301736280061135</v>
       </c>
       <c r="C21">
-        <v>0.08534084646129259</v>
+        <v>0.2469758000388822</v>
       </c>
       <c r="D21">
-        <v>0.00494139328307952</v>
+        <v>0.005366247410641733</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.040932640290009</v>
+        <v>4.449794569444634</v>
       </c>
       <c r="G21">
-        <v>0.002645012388506438</v>
+        <v>0.0008484632106426182</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>3.308458012342015</v>
+        <v>2.889867822286078</v>
       </c>
       <c r="J21">
-        <v>0.1966647100108183</v>
+        <v>0.0992145005082179</v>
       </c>
       <c r="K21">
-        <v>1.033930832503557</v>
+        <v>1.472454430557349</v>
       </c>
       <c r="L21">
-        <v>0.3540369108389569</v>
+        <v>0.2107929199838594</v>
       </c>
       <c r="M21">
-        <v>0.3223225156822096</v>
+        <v>0.2845429941214803</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.161917386223962</v>
+        <v>1.399408395093502</v>
       </c>
       <c r="C22">
-        <v>0.09037734658011232</v>
+        <v>0.2672283173461665</v>
       </c>
       <c r="D22">
-        <v>0.004923417538565289</v>
+        <v>0.005546516091817111</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>5.085910617346826</v>
+        <v>4.641160283820909</v>
       </c>
       <c r="G22">
-        <v>0.002641943029027348</v>
+        <v>0.0008427649916887954</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>3.336245754895671</v>
+        <v>3.002377633472037</v>
       </c>
       <c r="J22">
-        <v>0.1967860281466791</v>
+        <v>0.1000731411705509</v>
       </c>
       <c r="K22">
-        <v>1.056209031621279</v>
+        <v>1.58626849479549</v>
       </c>
       <c r="L22">
-        <v>0.3551704097077391</v>
+        <v>0.2212879760484725</v>
       </c>
       <c r="M22">
-        <v>0.3253491029637914</v>
+        <v>0.3040363842029095</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.152802235034073</v>
+        <v>1.347060353962632</v>
       </c>
       <c r="C23">
-        <v>0.08768630825883861</v>
+        <v>0.256374546243876</v>
       </c>
       <c r="D23">
-        <v>0.004932533026231312</v>
+        <v>0.005450323336498641</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.061807976684946</v>
+        <v>4.538496547020941</v>
       </c>
       <c r="G23">
-        <v>0.002643570302289626</v>
+        <v>0.0008458000499402982</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>3.321361261220261</v>
+        <v>2.942014812273385</v>
       </c>
       <c r="J23">
-        <v>0.1967197270110148</v>
+        <v>0.09961017464184607</v>
       </c>
       <c r="K23">
-        <v>1.044264736013702</v>
+        <v>1.52527178648063</v>
       </c>
       <c r="L23">
-        <v>0.3545538147302807</v>
+        <v>0.2156556273436934</v>
       </c>
       <c r="M23">
-        <v>0.3237192134196221</v>
+        <v>0.2935851253542339</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.119584234477145</v>
+        <v>1.153330902377604</v>
       </c>
       <c r="C24">
-        <v>0.07755905454112622</v>
+        <v>0.216181521532306</v>
       </c>
       <c r="D24">
-        <v>0.00497758277257887</v>
+        <v>0.005084791108341591</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.972653898528222</v>
+        <v>4.160686008321647</v>
       </c>
       <c r="G24">
-        <v>0.002649973419388276</v>
+        <v>0.000857440037335639</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3.266166193248438</v>
+        <v>2.719951231140257</v>
       </c>
       <c r="J24">
-        <v>0.1965027292280439</v>
+        <v>0.0979563835075723</v>
       </c>
       <c r="K24">
-        <v>1.000214044704848</v>
+        <v>1.299462902189561</v>
       </c>
       <c r="L24">
-        <v>0.3524742902595932</v>
+        <v>0.1949731399913119</v>
       </c>
       <c r="M24">
-        <v>0.3178660779162001</v>
+        <v>0.2549863642008319</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.086545927406775</v>
+        <v>0.9524425662420413</v>
       </c>
       <c r="C25">
-        <v>0.06677022777914488</v>
+        <v>0.1743905012004916</v>
       </c>
       <c r="D25">
-        <v>0.005048755653739079</v>
+        <v>0.004683551953652554</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.881031626878297</v>
+        <v>3.773188322791981</v>
       </c>
       <c r="G25">
-        <v>0.002657396850617915</v>
+        <v>0.0008703604040625721</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.209138193912452</v>
+        <v>2.492340998267252</v>
       </c>
       <c r="J25">
-        <v>0.1963416914170537</v>
+        <v>0.09636467513458058</v>
       </c>
       <c r="K25">
-        <v>0.9552335936506893</v>
+        <v>1.065077478355391</v>
       </c>
       <c r="L25">
-        <v>0.3507796895964077</v>
+        <v>0.1738703871574074</v>
       </c>
       <c r="M25">
-        <v>0.3122378379117627</v>
+        <v>0.2151308575461002</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8100290767939669</v>
+        <v>2.432812229034084</v>
       </c>
       <c r="C2">
-        <v>0.1446157564345754</v>
+        <v>0.6782579182203676</v>
       </c>
       <c r="D2">
-        <v>0.004378564475684854</v>
+        <v>0.2522243878782575</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>3.501932793465159</v>
+        <v>0.5181552789211352</v>
       </c>
       <c r="G2">
-        <v>0.0008802381188195878</v>
+        <v>0.2313904108133542</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.751809025448921E-05</v>
       </c>
       <c r="I2">
-        <v>2.333122139260709</v>
+        <v>0.001344510981922564</v>
       </c>
       <c r="J2">
-        <v>0.09533924803702831</v>
+        <v>0.2236687495171381</v>
       </c>
       <c r="K2">
-        <v>0.8986485816375307</v>
+        <v>0.1623981163734438</v>
       </c>
       <c r="L2">
-        <v>0.159206516099367</v>
+        <v>0.1909764232782649</v>
       </c>
       <c r="M2">
-        <v>0.1870234934141166</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.8215922437572019</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0.908018907291293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7163088102098527</v>
+        <v>2.124484069811899</v>
       </c>
       <c r="C3">
-        <v>0.1249061025069125</v>
+        <v>0.6007222660775824</v>
       </c>
       <c r="D3">
-        <v>0.004164502241049917</v>
+        <v>0.2299314325708224</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>3.325471994444726</v>
+        <v>0.4974551763969544</v>
       </c>
       <c r="G3">
-        <v>0.0008871823416544163</v>
+        <v>0.2226192797293294</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0005319198387129243</v>
       </c>
       <c r="I3">
-        <v>2.229608542609995</v>
+        <v>0.0007615645899674561</v>
       </c>
       <c r="J3">
-        <v>0.09472742732957329</v>
+        <v>0.2241794498423886</v>
       </c>
       <c r="K3">
-        <v>0.7889254888225139</v>
+        <v>0.1719977074493517</v>
       </c>
       <c r="L3">
-        <v>0.1497417720955667</v>
+        <v>0.1790190479837861</v>
       </c>
       <c r="M3">
-        <v>0.1686187565969668</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.7169865979192238</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.8902025050273608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6599543456599122</v>
+        <v>1.934656935070734</v>
       </c>
       <c r="C4">
-        <v>0.1129907004316237</v>
+        <v>0.553403244133392</v>
       </c>
       <c r="D4">
-        <v>0.004029054703729607</v>
+        <v>0.2163041886403363</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>3.22034477362341</v>
+        <v>0.485248481047762</v>
       </c>
       <c r="G4">
-        <v>0.0008915762322200147</v>
+        <v>0.2176218418362197</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0009895804991461032</v>
       </c>
       <c r="I4">
-        <v>2.167969221486558</v>
+        <v>0.000553110482294894</v>
       </c>
       <c r="J4">
-        <v>0.0943902907542018</v>
+        <v>0.224766033381087</v>
       </c>
       <c r="K4">
-        <v>0.7228408184821546</v>
+        <v>0.1782289456338706</v>
       </c>
       <c r="L4">
-        <v>0.144142338608944</v>
+        <v>0.1716205058248903</v>
       </c>
       <c r="M4">
-        <v>0.1575977176495726</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.6527854582248978</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0.8806498799207674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6372631310418626</v>
+        <v>1.856992234252147</v>
       </c>
       <c r="C5">
-        <v>0.1081758443437906</v>
+        <v>0.5352014626980122</v>
       </c>
       <c r="D5">
-        <v>0.003972801994126307</v>
+        <v>0.2108510730806756</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>3.178257629914398</v>
+        <v>0.4799601946182364</v>
       </c>
       <c r="G5">
-        <v>0.0008934004262984509</v>
+        <v>0.2153399834640339</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.001222343823120031</v>
       </c>
       <c r="I5">
-        <v>2.143299333360204</v>
+        <v>0.0005666262442240999</v>
       </c>
       <c r="J5">
-        <v>0.09426225259703003</v>
+        <v>0.2248920026699679</v>
       </c>
       <c r="K5">
-        <v>0.6962032084869634</v>
+        <v>0.1806821916916626</v>
       </c>
       <c r="L5">
-        <v>0.1419109107520526</v>
+        <v>0.1685413554128203</v>
       </c>
       <c r="M5">
-        <v>0.1531716757930432</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.6268885803802888</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0.8759981112697233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6335110867601941</v>
+        <v>1.843875922434506</v>
       </c>
       <c r="C6">
-        <v>0.1073786328907005</v>
+        <v>0.5334273499813946</v>
       </c>
       <c r="D6">
-        <v>0.003963396179985423</v>
+        <v>0.210052288062812</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>3.171312984267374</v>
+        <v>0.4785580558217646</v>
       </c>
       <c r="G6">
-        <v>0.0008937053907472055</v>
+        <v>0.2145540436976887</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.001264406976711374</v>
       </c>
       <c r="I6">
-        <v>2.139229067154318</v>
+        <v>0.0006554954791271328</v>
       </c>
       <c r="J6">
-        <v>0.09424154701491716</v>
+        <v>0.2246976430666834</v>
       </c>
       <c r="K6">
-        <v>0.6917968523913771</v>
+        <v>0.1808901501474969</v>
       </c>
       <c r="L6">
-        <v>0.1415433456077508</v>
+        <v>0.1679694417379807</v>
       </c>
       <c r="M6">
-        <v>0.1524405233970931</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.6229112665851062</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0.8739117124651017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6596472484206117</v>
+        <v>1.933030294338977</v>
       </c>
       <c r="C7">
-        <v>0.1129256082975729</v>
+        <v>0.5565650211150626</v>
       </c>
       <c r="D7">
-        <v>0.004028300396913487</v>
+        <v>0.2165204027516836</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>3.219774194950631</v>
+        <v>0.4837271344161351</v>
       </c>
       <c r="G7">
-        <v>0.0008916006965781415</v>
+        <v>0.2164644946818512</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0009942084587639677</v>
       </c>
       <c r="I7">
-        <v>2.167634741305946</v>
+        <v>0.0007692390926949955</v>
       </c>
       <c r="J7">
-        <v>0.09438852657114083</v>
+        <v>0.2241699247538875</v>
       </c>
       <c r="K7">
-        <v>0.7224804296201626</v>
+        <v>0.1777065857462388</v>
       </c>
       <c r="L7">
-        <v>0.1441120444865902</v>
+        <v>0.1714166653196187</v>
       </c>
       <c r="M7">
-        <v>0.1575377694133202</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.6533196914374813</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0.8769466634232259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7774513357815636</v>
+        <v>2.325829738205869</v>
       </c>
       <c r="C8">
-        <v>0.1377773638703559</v>
+        <v>0.6560153180704162</v>
       </c>
       <c r="D8">
-        <v>0.004305557653758285</v>
+        <v>0.2449102270581847</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>3.440385341784989</v>
+        <v>0.5089977913029173</v>
       </c>
       <c r="G8">
-        <v>0.0008826060607275937</v>
+        <v>0.2267959589636988</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0002071726644068406</v>
       </c>
       <c r="I8">
-        <v>2.297011434145119</v>
+        <v>0.001369894337875266</v>
       </c>
       <c r="J8">
-        <v>0.09512008540330186</v>
+        <v>0.2230021464361656</v>
       </c>
       <c r="K8">
-        <v>0.8605299171317995</v>
+        <v>0.1649182209330071</v>
       </c>
       <c r="L8">
-        <v>0.1558972639660681</v>
+        <v>0.1866521522673992</v>
       </c>
       <c r="M8">
-        <v>0.1806162920574117</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.7866923572683504</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0.8967838223700539</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.019167105908082</v>
+        <v>3.093467624183177</v>
       </c>
       <c r="C9">
-        <v>0.1882914167881182</v>
+        <v>0.8474397174386752</v>
       </c>
       <c r="D9">
-        <v>0.004819982111239796</v>
+        <v>0.3006204843511995</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.901335074017908</v>
+        <v>0.565421372950567</v>
       </c>
       <c r="G9">
-        <v>0.0008659547350104939</v>
+        <v>0.2524003923596396</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0002872068783705828</v>
       </c>
       <c r="I9">
-        <v>2.567593642375542</v>
+        <v>0.003515105311166167</v>
       </c>
       <c r="J9">
-        <v>0.09687690386300574</v>
+        <v>0.2240475478329031</v>
       </c>
       <c r="K9">
-        <v>1.142965987991715</v>
+        <v>0.1436147377803962</v>
       </c>
       <c r="L9">
-        <v>0.1808328530193393</v>
+        <v>0.2164196402662455</v>
       </c>
       <c r="M9">
-        <v>0.2283456247421434</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.047100800877544</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0.9539388347218676</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.205203783081345</v>
+        <v>3.665338523744822</v>
       </c>
       <c r="C10">
-        <v>0.2269499096704948</v>
+        <v>0.9926751911335998</v>
       </c>
       <c r="D10">
-        <v>0.005184358069559636</v>
+        <v>0.3332293488955145</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>4.261494754582515</v>
+        <v>0.5977437616304684</v>
       </c>
       <c r="G10">
-        <v>0.0008542545333963664</v>
+        <v>0.2680218677486437</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001569288318760798</v>
       </c>
       <c r="I10">
-        <v>2.779190494850425</v>
+        <v>0.006106267773560603</v>
       </c>
       <c r="J10">
-        <v>0.09838918613928627</v>
+        <v>0.2235124018704866</v>
       </c>
       <c r="K10">
-        <v>1.359940339428732</v>
+        <v>0.1281075774217655</v>
       </c>
       <c r="L10">
-        <v>0.2004835551280735</v>
+        <v>0.2260121414150618</v>
       </c>
       <c r="M10">
-        <v>0.2653080279805664</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>1.221587029077767</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0.9863998994501344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.292147975612352</v>
+        <v>4.012261676959383</v>
       </c>
       <c r="C11">
-        <v>0.2449872565074145</v>
+        <v>1.072792227724165</v>
       </c>
       <c r="D11">
-        <v>0.005348359497018507</v>
+        <v>0.2753979041576997</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>4.431052731250531</v>
+        <v>0.515343649356204</v>
       </c>
       <c r="G11">
-        <v>0.0008490310056991744</v>
+        <v>0.2317287680578346</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.02001136130818892</v>
       </c>
       <c r="I11">
-        <v>2.878850519267417</v>
+        <v>0.007546300072897694</v>
       </c>
       <c r="J11">
-        <v>0.09913143922029377</v>
+        <v>0.2011450930467831</v>
       </c>
       <c r="K11">
-        <v>1.461280187917026</v>
+        <v>0.1093818242851894</v>
       </c>
       <c r="L11">
-        <v>0.2097659562600143</v>
+        <v>0.148770495906529</v>
       </c>
       <c r="M11">
-        <v>0.2826309846697725</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>1.148847746281788</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0.8628044670381314</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.325448421295874</v>
+        <v>4.189183818372442</v>
       </c>
       <c r="C12">
-        <v>0.2518931377843785</v>
+        <v>1.104387816277153</v>
       </c>
       <c r="D12">
-        <v>0.005410329854374396</v>
+        <v>0.2249492782379718</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.496178507687489</v>
+        <v>0.4457031116368455</v>
       </c>
       <c r="G12">
-        <v>0.0008470657049115315</v>
+        <v>0.2011129002540528</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0584641905687775</v>
       </c>
       <c r="I12">
-        <v>2.917135664374385</v>
+        <v>0.007823232043052464</v>
       </c>
       <c r="J12">
-        <v>0.09942088741330579</v>
+        <v>0.1838892080353745</v>
       </c>
       <c r="K12">
-        <v>1.500087497293833</v>
+        <v>0.09942599291949072</v>
       </c>
       <c r="L12">
-        <v>0.213335269266949</v>
+        <v>0.1129760085920566</v>
       </c>
       <c r="M12">
-        <v>0.2892727390260035</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.051721943973959</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0.7618272585513353</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.318259083951801</v>
+        <v>4.242866636746783</v>
       </c>
       <c r="C13">
-        <v>0.2504022922500155</v>
+        <v>1.105591964925566</v>
       </c>
       <c r="D13">
-        <v>0.005396987253142527</v>
+        <v>0.1779047302387653</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.48211006439891</v>
+        <v>0.3795926284681812</v>
       </c>
       <c r="G13">
-        <v>0.0008474884265128324</v>
+        <v>0.1712177575572937</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1139002215717397</v>
       </c>
       <c r="I13">
-        <v>2.90886502558314</v>
+        <v>0.007498626163040534</v>
       </c>
       <c r="J13">
-        <v>0.09935816761798577</v>
+        <v>0.1685443747633002</v>
       </c>
       <c r="K13">
-        <v>1.491709530146636</v>
+        <v>0.09455257581472809</v>
       </c>
       <c r="L13">
-        <v>0.2125640566893452</v>
+        <v>0.1062238679962366</v>
       </c>
       <c r="M13">
-        <v>0.2878385251389304</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.932335338070672</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.6662899454813385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.294879810546377</v>
+        <v>4.22425718411057</v>
       </c>
       <c r="C14">
-        <v>0.2455538289351296</v>
+        <v>1.093764535086905</v>
       </c>
       <c r="D14">
-        <v>0.005353459756376466</v>
+        <v>0.1475995889176858</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.436391692905005</v>
+        <v>0.3355829641416577</v>
       </c>
       <c r="G14">
-        <v>0.0008488690729269676</v>
+        <v>0.1507518752616335</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1630116350746249</v>
       </c>
       <c r="I14">
-        <v>2.881988973111845</v>
+        <v>0.007083262068366736</v>
       </c>
       <c r="J14">
-        <v>0.09915508106815452</v>
+        <v>0.1586917621473205</v>
       </c>
       <c r="K14">
-        <v>1.464463906190332</v>
+        <v>0.09359421889632435</v>
       </c>
       <c r="L14">
-        <v>0.2100584882546457</v>
+        <v>0.1185155476674247</v>
       </c>
       <c r="M14">
-        <v>0.2831757103379928</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.8401228054484733</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.6022103266328713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.280609741382165</v>
+        <v>4.192469183276103</v>
       </c>
       <c r="C15">
-        <v>0.2425941756970644</v>
+        <v>1.085829406917128</v>
       </c>
       <c r="D15">
-        <v>0.005326784402969409</v>
+        <v>0.1403335715930183</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>4.408510393231921</v>
+        <v>0.3247246095232086</v>
       </c>
       <c r="G15">
-        <v>0.0008497163706766202</v>
+        <v>0.145429848410501</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1754257742793328</v>
       </c>
       <c r="I15">
-        <v>2.865599503377567</v>
+        <v>0.006957131979947739</v>
       </c>
       <c r="J15">
-        <v>0.09903179275611507</v>
+        <v>0.156461252675733</v>
       </c>
       <c r="K15">
-        <v>1.447833110154193</v>
+        <v>0.09414210694221037</v>
       </c>
       <c r="L15">
-        <v>0.2085309768931296</v>
+        <v>0.1235643913813149</v>
       </c>
       <c r="M15">
-        <v>0.2803305469459545</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.8131113860311245</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.5862220126480082</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.199571995253081</v>
+        <v>3.931705763844661</v>
       </c>
       <c r="C16">
-        <v>0.2257810925134009</v>
+        <v>1.024602364038373</v>
       </c>
       <c r="D16">
-        <v>0.005173614598648513</v>
+        <v>0.1371894366543742</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>4.250536777243269</v>
+        <v>0.3241288642748827</v>
       </c>
       <c r="G16">
-        <v>0.0008545977699500428</v>
+        <v>0.1441096611257819</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1622504059247376</v>
       </c>
       <c r="I16">
-        <v>2.772750682501709</v>
+        <v>0.005923482820810122</v>
       </c>
       <c r="J16">
-        <v>0.09834181795097052</v>
+        <v>0.1592946423711439</v>
       </c>
       <c r="K16">
-        <v>1.353375008152625</v>
+        <v>0.1008469032956845</v>
       </c>
       <c r="L16">
-        <v>0.1998842439589836</v>
+        <v>0.1206649081956819</v>
       </c>
       <c r="M16">
-        <v>0.2641868978729676</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.7662643821404984</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.5891624522954686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.150480641955767</v>
+        <v>3.742233235947083</v>
       </c>
       <c r="C17">
-        <v>0.215589637073677</v>
+        <v>0.9842360093875868</v>
       </c>
       <c r="D17">
-        <v>0.00507927897324123</v>
+        <v>0.150191735055067</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>4.155154985099017</v>
+        <v>0.346519827171079</v>
       </c>
       <c r="G17">
-        <v>0.0008576166744922365</v>
+        <v>0.1538214130091973</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242648378555771</v>
       </c>
       <c r="I17">
-        <v>2.716701263110465</v>
+        <v>0.005399102908659081</v>
       </c>
       <c r="J17">
-        <v>0.09793283498104799</v>
+        <v>0.1666759086946143</v>
       </c>
       <c r="K17">
-        <v>1.296139435115492</v>
+        <v>0.1064663054155921</v>
       </c>
       <c r="L17">
-        <v>0.1946710057151932</v>
+        <v>0.109224730287373</v>
       </c>
       <c r="M17">
-        <v>0.2544195379570766</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.7785241351239591</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.6250912196846627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.122459650375021</v>
+        <v>3.594085127139692</v>
       </c>
       <c r="C18">
-        <v>0.2097695716188923</v>
+        <v>0.9541082985905973</v>
       </c>
       <c r="D18">
-        <v>0.005024846218013579</v>
+        <v>0.1813949180062053</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.100826016045716</v>
+        <v>0.3945674632741358</v>
       </c>
       <c r="G18">
-        <v>0.0008593624796285432</v>
+        <v>0.175688461861462</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07141562441680094</v>
       </c>
       <c r="I18">
-        <v>2.684779778355008</v>
+        <v>0.004959424363615739</v>
       </c>
       <c r="J18">
-        <v>0.09770267381096076</v>
+        <v>0.1795258492784768</v>
       </c>
       <c r="K18">
-        <v>1.263463798886875</v>
+        <v>0.1128056088872733</v>
       </c>
       <c r="L18">
-        <v>0.1917044709986442</v>
+        <v>0.1041740463892145</v>
       </c>
       <c r="M18">
-        <v>0.2488489046692912</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8441871834965582</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.6982975856545579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.113007900308787</v>
+        <v>3.490122928789276</v>
       </c>
       <c r="C19">
-        <v>0.2078058692841438</v>
+        <v>0.9414548324658085</v>
       </c>
       <c r="D19">
-        <v>0.005006383130631065</v>
+        <v>0.2300731201747368</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>4.082519794681588</v>
+        <v>0.4618355898145765</v>
       </c>
       <c r="G19">
-        <v>0.0008599552387677671</v>
+        <v>0.2056461708660748</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02635148100898732</v>
       </c>
       <c r="I19">
-        <v>2.674024461325786</v>
+        <v>0.005111512892018943</v>
       </c>
       <c r="J19">
-        <v>0.09762560051267499</v>
+        <v>0.1956022350507425</v>
       </c>
       <c r="K19">
-        <v>1.252440900373301</v>
+        <v>0.1201816208589843</v>
       </c>
       <c r="L19">
-        <v>0.1907054040983382</v>
+        <v>0.1268893481488682</v>
       </c>
       <c r="M19">
-        <v>0.2469706527321449</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.9530156662746947</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0.7954645359192654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.155683940437711</v>
+        <v>3.513804521820475</v>
       </c>
       <c r="C20">
-        <v>0.2166701363912722</v>
+        <v>0.9654526370977408</v>
       </c>
       <c r="D20">
-        <v>0.00508933830819025</v>
+        <v>0.3251800743909712</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>4.165252806297332</v>
+        <v>0.5841276481647171</v>
       </c>
       <c r="G20">
-        <v>0.0008572943432302732</v>
+        <v>0.2600864923913022</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.001130068360938097</v>
       </c>
       <c r="I20">
-        <v>2.722634653706294</v>
+        <v>0.006044309296391326</v>
       </c>
       <c r="J20">
-        <v>0.09797584275721505</v>
+        <v>0.2216303725061834</v>
       </c>
       <c r="K20">
-        <v>1.302206562505205</v>
+        <v>0.1304142394235885</v>
       </c>
       <c r="L20">
-        <v>0.195222619698832</v>
+        <v>0.2225003560077994</v>
       </c>
       <c r="M20">
-        <v>0.255454334420893</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>1.177800223477831</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0.9655167348806089</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.301736280061135</v>
+        <v>3.937514149851495</v>
       </c>
       <c r="C21">
-        <v>0.2469758000388822</v>
+        <v>1.074039271189491</v>
       </c>
       <c r="D21">
-        <v>0.005366247410641733</v>
+        <v>0.3639945017073387</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.449794569444634</v>
+        <v>0.6286878946500707</v>
       </c>
       <c r="G21">
-        <v>0.0008484632106426182</v>
+        <v>0.2814938823150328</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.002420819174787869</v>
       </c>
       <c r="I21">
-        <v>2.889867822286078</v>
+        <v>0.008286443984511394</v>
       </c>
       <c r="J21">
-        <v>0.0992145005082179</v>
+        <v>0.2261211210583838</v>
       </c>
       <c r="K21">
-        <v>1.472454430557349</v>
+        <v>0.1218718811657169</v>
       </c>
       <c r="L21">
-        <v>0.2107929199838594</v>
+        <v>0.2485679681699935</v>
       </c>
       <c r="M21">
-        <v>0.2845429941214803</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.339117117769163</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.020653734726977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.399408395093502</v>
+        <v>4.220106494774882</v>
       </c>
       <c r="C22">
-        <v>0.2672283173461665</v>
+        <v>1.141346994813205</v>
       </c>
       <c r="D22">
-        <v>0.005546516091817111</v>
+        <v>0.3845492842010572</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.641160283820909</v>
+        <v>0.6545334455878589</v>
       </c>
       <c r="G22">
-        <v>0.0008427649916887954</v>
+        <v>0.2949203381669179</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.003554184068940813</v>
       </c>
       <c r="I22">
-        <v>3.002377633472037</v>
+        <v>0.009678237438382808</v>
       </c>
       <c r="J22">
-        <v>0.1000731411705509</v>
+        <v>0.2288352389656154</v>
       </c>
       <c r="K22">
-        <v>1.58626849479549</v>
+        <v>0.1165807862391279</v>
       </c>
       <c r="L22">
-        <v>0.2212879760484725</v>
+        <v>0.2596655746892793</v>
       </c>
       <c r="M22">
-        <v>0.3040363842029095</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.434497112770686</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.055021460953299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.347060353962632</v>
+        <v>4.069987392552491</v>
       </c>
       <c r="C23">
-        <v>0.256374546243876</v>
+        <v>1.10118277486913</v>
       </c>
       <c r="D23">
-        <v>0.005450323336498641</v>
+        <v>0.3732157479991827</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.538496547020941</v>
+        <v>0.6423549169094827</v>
       </c>
       <c r="G23">
-        <v>0.0008458000499402982</v>
+        <v>0.2890057707652218</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.002926738444566812</v>
       </c>
       <c r="I23">
-        <v>2.942014812273385</v>
+        <v>0.008649932984307718</v>
       </c>
       <c r="J23">
-        <v>0.09961017464184607</v>
+        <v>0.2280354172441648</v>
       </c>
       <c r="K23">
-        <v>1.52527178648063</v>
+        <v>0.1199519134563953</v>
       </c>
       <c r="L23">
-        <v>0.2156556273436934</v>
+        <v>0.2539261484150401</v>
       </c>
       <c r="M23">
-        <v>0.2935851253542339</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>1.382498448356799</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.040690435233614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.153330902377604</v>
+        <v>3.500220119277287</v>
       </c>
       <c r="C24">
-        <v>0.216181521532306</v>
+        <v>0.9565922224634562</v>
       </c>
       <c r="D24">
-        <v>0.005084791108341591</v>
+        <v>0.331083119035199</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>4.160686008321647</v>
+        <v>0.5950417833670159</v>
       </c>
       <c r="G24">
-        <v>0.000857440037335639</v>
+        <v>0.2657304473184681</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.001070818642178839</v>
       </c>
       <c r="I24">
-        <v>2.719951231140257</v>
+        <v>0.005604011453431923</v>
       </c>
       <c r="J24">
-        <v>0.0979563835075723</v>
+        <v>0.2246363906627593</v>
       </c>
       <c r="K24">
-        <v>1.299462902189561</v>
+        <v>0.1326522004149489</v>
       </c>
       <c r="L24">
-        <v>0.1949731399913119</v>
+        <v>0.2319005685331064</v>
       </c>
       <c r="M24">
-        <v>0.2549863642008319</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.187714100092435</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0.9837727814907282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9524425662420413</v>
+        <v>2.885068436604229</v>
       </c>
       <c r="C25">
-        <v>0.1743905012004916</v>
+        <v>0.8016495945780377</v>
       </c>
       <c r="D25">
-        <v>0.004683551953652554</v>
+        <v>0.2860098408603733</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>3.773188322791981</v>
+        <v>0.5470572191593703</v>
       </c>
       <c r="G25">
-        <v>0.0008703604040625721</v>
+        <v>0.243060280011278</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.517786226429735E-05</v>
       </c>
       <c r="I25">
-        <v>2.492340998267252</v>
+        <v>0.003155362559418506</v>
       </c>
       <c r="J25">
-        <v>0.09636467513458058</v>
+        <v>0.2224449700344806</v>
       </c>
       <c r="K25">
-        <v>1.065077478355391</v>
+        <v>0.1481121760153457</v>
       </c>
       <c r="L25">
-        <v>0.1738703871574074</v>
+        <v>0.2081147388102877</v>
       </c>
       <c r="M25">
-        <v>0.2151308575461002</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.9781879787916381</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0.9306032515781482</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_28/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.432812229034084</v>
+        <v>2.433346014406879</v>
       </c>
       <c r="C2">
-        <v>0.6782579182203676</v>
+        <v>0.686824345994637</v>
       </c>
       <c r="D2">
-        <v>0.2522243878782575</v>
+        <v>0.2535212667712727</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5181552789211352</v>
+        <v>0.5109117722899867</v>
       </c>
       <c r="G2">
-        <v>0.2313904108133542</v>
+        <v>0.2084712221915339</v>
       </c>
       <c r="H2">
-        <v>9.751809025448921E-05</v>
+        <v>9.652042183372345E-05</v>
       </c>
       <c r="I2">
-        <v>0.001344510981922564</v>
+        <v>0.001602343166523745</v>
       </c>
       <c r="J2">
-        <v>0.2236687495171381</v>
+        <v>0.2594796679548708</v>
       </c>
       <c r="K2">
-        <v>0.1623981163734438</v>
+        <v>0.1564931479462786</v>
       </c>
       <c r="L2">
-        <v>0.1909764232782649</v>
+        <v>0.1011506178714843</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.02886704524910444</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1898731466955468</v>
       </c>
       <c r="O2">
-        <v>0.8215922437572019</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.908018907291293</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.8265944777828835</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.8901636988082942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.124484069811899</v>
+        <v>2.127186744548169</v>
       </c>
       <c r="C3">
-        <v>0.6007222660775824</v>
+        <v>0.6012272322377896</v>
       </c>
       <c r="D3">
-        <v>0.2299314325708224</v>
+        <v>0.2310128829277716</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4974551763969544</v>
+        <v>0.4922760172004601</v>
       </c>
       <c r="G3">
-        <v>0.2226192797293294</v>
+        <v>0.2013039024401451</v>
       </c>
       <c r="H3">
-        <v>0.0005319198387129243</v>
+        <v>0.0005087318251238981</v>
       </c>
       <c r="I3">
-        <v>0.0007615645899674561</v>
+        <v>0.001007371989362404</v>
       </c>
       <c r="J3">
-        <v>0.2241794498423886</v>
+        <v>0.2589142478695052</v>
       </c>
       <c r="K3">
-        <v>0.1719977074493517</v>
+        <v>0.1658563932264094</v>
       </c>
       <c r="L3">
-        <v>0.1790190479837861</v>
+        <v>0.1066040374019632</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03162655012844406</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1785986016494974</v>
       </c>
       <c r="O3">
-        <v>0.7169865979192238</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.8902025050273608</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.720221075270068</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0.8767324069909392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.934656935070734</v>
+        <v>1.938612658496282</v>
       </c>
       <c r="C4">
-        <v>0.553403244133392</v>
+        <v>0.5491583963646747</v>
       </c>
       <c r="D4">
-        <v>0.2163041886403363</v>
+        <v>0.2172767600775956</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.485248481047762</v>
+        <v>0.4812273793397992</v>
       </c>
       <c r="G4">
-        <v>0.2176218418362197</v>
+        <v>0.1972781078308543</v>
       </c>
       <c r="H4">
-        <v>0.0009895804991461032</v>
+        <v>0.0009400508438441868</v>
       </c>
       <c r="I4">
-        <v>0.000553110482294894</v>
+        <v>0.0007688614926797399</v>
       </c>
       <c r="J4">
-        <v>0.224766033381087</v>
+        <v>0.2586783084242086</v>
       </c>
       <c r="K4">
-        <v>0.1782289456338706</v>
+        <v>0.171884575357617</v>
       </c>
       <c r="L4">
-        <v>0.1716205058248903</v>
+        <v>0.1102263532202183</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03376343444565622</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1716180245149204</v>
       </c>
       <c r="O4">
-        <v>0.6527854582248978</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.8806498799207674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.6549612218384198</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0.8695508015984217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.856992234252147</v>
+        <v>1.861443150484718</v>
       </c>
       <c r="C5">
-        <v>0.5352014626980122</v>
+        <v>0.529057500696922</v>
       </c>
       <c r="D5">
-        <v>0.2108510730806756</v>
+        <v>0.211783414184282</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4799601946182364</v>
+        <v>0.4763946890928707</v>
       </c>
       <c r="G5">
-        <v>0.2153399834640339</v>
+        <v>0.1954016436731791</v>
       </c>
       <c r="H5">
-        <v>0.001222343823120031</v>
+        <v>0.001159037331426527</v>
       </c>
       <c r="I5">
-        <v>0.0005666262442240999</v>
+        <v>0.0007773353211488754</v>
       </c>
       <c r="J5">
-        <v>0.2248920026699679</v>
+        <v>0.2584270641607205</v>
       </c>
       <c r="K5">
-        <v>0.1806821916916626</v>
+        <v>0.1742479224825724</v>
       </c>
       <c r="L5">
-        <v>0.1685413554128203</v>
+        <v>0.1116609178769394</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03473130577024547</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1687100505570953</v>
       </c>
       <c r="O5">
-        <v>0.6268885803802888</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.8759981112697233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.628634958457468</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0.8658147344150535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.843875922434506</v>
+        <v>1.848411107236217</v>
       </c>
       <c r="C6">
-        <v>0.5334273499813946</v>
+        <v>0.5269543657732925</v>
       </c>
       <c r="D6">
-        <v>0.210052288062812</v>
+        <v>0.2109761123225127</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4785580558217646</v>
+        <v>0.475079621296139</v>
       </c>
       <c r="G6">
-        <v>0.2145540436976887</v>
+        <v>0.194699194246823</v>
       </c>
       <c r="H6">
-        <v>0.001264406976711374</v>
+        <v>0.001198602815602579</v>
       </c>
       <c r="I6">
-        <v>0.0006554954791271328</v>
+        <v>0.0008818904739236189</v>
       </c>
       <c r="J6">
-        <v>0.2246976430666834</v>
+        <v>0.258164495701287</v>
       </c>
       <c r="K6">
-        <v>0.1808901501474969</v>
+        <v>0.1744488285272858</v>
       </c>
       <c r="L6">
-        <v>0.1679694417379807</v>
+        <v>0.1117696829732324</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.03488268471898376</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1681678776684379</v>
       </c>
       <c r="O6">
-        <v>0.6229112665851062</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.8739117124651017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.624580330008186</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0.8639105214236906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.933030294338977</v>
+        <v>1.93695975963962</v>
       </c>
       <c r="C7">
-        <v>0.5565650211150626</v>
+        <v>0.5517793869604475</v>
       </c>
       <c r="D7">
-        <v>0.2165204027516836</v>
+        <v>0.2177149773528697</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4837271344161351</v>
+        <v>0.4789458795908814</v>
       </c>
       <c r="G7">
-        <v>0.2164644946818512</v>
+        <v>0.1982492721171951</v>
       </c>
       <c r="H7">
-        <v>0.0009942084587639677</v>
+        <v>0.000946064614016251</v>
       </c>
       <c r="I7">
-        <v>0.0007692390926949955</v>
+        <v>0.001027329364801766</v>
       </c>
       <c r="J7">
-        <v>0.2241699247538875</v>
+        <v>0.2548319080598418</v>
       </c>
       <c r="K7">
-        <v>0.1777065857462388</v>
+        <v>0.1712146802021763</v>
       </c>
       <c r="L7">
-        <v>0.1714166653196187</v>
+        <v>0.1097811337892391</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0337029413371368</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1713909327833605</v>
       </c>
       <c r="O7">
-        <v>0.6533196914374813</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.8769466634232259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.6554788966795755</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.8638921260967862</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.325829738205869</v>
+        <v>2.327004111050655</v>
       </c>
       <c r="C8">
-        <v>0.6560153180704162</v>
+        <v>0.6601350542443356</v>
       </c>
       <c r="D8">
-        <v>0.2449102270581847</v>
+        <v>0.2468895943061256</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5089977913029173</v>
+        <v>0.4998890159624665</v>
       </c>
       <c r="G8">
-        <v>0.2267959589636988</v>
+        <v>0.2114607262029864</v>
       </c>
       <c r="H8">
-        <v>0.0002071726644068406</v>
+        <v>0.0002035655815992854</v>
       </c>
       <c r="I8">
-        <v>0.001369894337875266</v>
+        <v>0.001676922541903991</v>
       </c>
       <c r="J8">
-        <v>0.2230021464361656</v>
+        <v>0.2479914208747545</v>
       </c>
       <c r="K8">
-        <v>0.1649182209330071</v>
+        <v>0.158449993192546</v>
       </c>
       <c r="L8">
-        <v>0.1866521522673992</v>
+        <v>0.1022750943240229</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.02949427692821516</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1856989329307837</v>
       </c>
       <c r="O8">
-        <v>0.7866923572683504</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.8967838223700539</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.7910772611640766</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0.8738552455605628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.093467624183177</v>
+        <v>3.088656947533252</v>
       </c>
       <c r="C9">
-        <v>0.8474397174386752</v>
+        <v>0.8723588029028519</v>
       </c>
       <c r="D9">
-        <v>0.3006204843511995</v>
+        <v>0.3034992503449416</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.565421372950567</v>
+        <v>0.5497612783894965</v>
       </c>
       <c r="G9">
-        <v>0.2524003923596396</v>
+        <v>0.2349055624462792</v>
       </c>
       <c r="H9">
-        <v>0.0002872068783705828</v>
+        <v>0.000254707892086925</v>
       </c>
       <c r="I9">
-        <v>0.003515105311166167</v>
+        <v>0.003651108585102314</v>
       </c>
       <c r="J9">
-        <v>0.2240475478329031</v>
+        <v>0.2479270737432557</v>
       </c>
       <c r="K9">
-        <v>0.1436147377803962</v>
+        <v>0.137262745239255</v>
       </c>
       <c r="L9">
-        <v>0.2164196402662455</v>
+        <v>0.09065895705868421</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02506261738541316</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2137309674480434</v>
       </c>
       <c r="O9">
-        <v>1.047100800877544</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.9539388347218676</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.056036483309967</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0.9162529186323525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.665338523744822</v>
+        <v>3.655529454104908</v>
       </c>
       <c r="C10">
-        <v>0.9926751911335998</v>
+        <v>1.029734945298486</v>
       </c>
       <c r="D10">
-        <v>0.3332293488955145</v>
+        <v>0.3380756961100815</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5977437616304684</v>
+        <v>0.572879765319307</v>
       </c>
       <c r="G10">
-        <v>0.2680218677486437</v>
+        <v>0.2619538022968655</v>
       </c>
       <c r="H10">
-        <v>0.001569288318760798</v>
+        <v>0.001433025295155765</v>
       </c>
       <c r="I10">
-        <v>0.006106267773560603</v>
+        <v>0.005973281923867368</v>
       </c>
       <c r="J10">
-        <v>0.2235124018704866</v>
+        <v>0.2291816239267561</v>
       </c>
       <c r="K10">
-        <v>0.1281075774217655</v>
+        <v>0.1210969939736302</v>
       </c>
       <c r="L10">
-        <v>0.2260121414150618</v>
+        <v>0.08274241645451141</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02313043914641089</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2220493886625121</v>
       </c>
       <c r="O10">
-        <v>1.221587029077767</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.9863998994501344</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>1.233556299613767</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.9263068746255101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.012261676959383</v>
+        <v>4.001411563103716</v>
       </c>
       <c r="C11">
-        <v>1.072792227724165</v>
+        <v>1.099595597178279</v>
       </c>
       <c r="D11">
-        <v>0.2753979041576997</v>
+        <v>0.281517117635758</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.515343649356204</v>
+        <v>0.4862120596970385</v>
       </c>
       <c r="G11">
-        <v>0.2317287680578346</v>
+        <v>0.2545692712175764</v>
       </c>
       <c r="H11">
-        <v>0.02001136130818892</v>
+        <v>0.01984857476072577</v>
       </c>
       <c r="I11">
-        <v>0.007546300072897694</v>
+        <v>0.007339769801997242</v>
       </c>
       <c r="J11">
-        <v>0.2011450930467831</v>
+        <v>0.1819295838148491</v>
       </c>
       <c r="K11">
-        <v>0.1093818242851894</v>
+        <v>0.1043025507153104</v>
       </c>
       <c r="L11">
-        <v>0.148770495906529</v>
+        <v>0.07666710107662267</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01790928911933065</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1452471084459894</v>
       </c>
       <c r="O11">
-        <v>1.148847746281788</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.8628044670381314</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.15888760840987</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0.7906911461992649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.189183818372442</v>
+        <v>4.178722565064845</v>
       </c>
       <c r="C12">
-        <v>1.104387816277153</v>
+        <v>1.121210857519088</v>
       </c>
       <c r="D12">
-        <v>0.2249492782379718</v>
+        <v>0.230656535843778</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4457031116368455</v>
+        <v>0.418072419625382</v>
       </c>
       <c r="G12">
-        <v>0.2011129002540528</v>
+        <v>0.2362836466275056</v>
       </c>
       <c r="H12">
-        <v>0.0584641905687775</v>
+        <v>0.05830625337684125</v>
       </c>
       <c r="I12">
-        <v>0.007823232043052464</v>
+        <v>0.007553234003219167</v>
       </c>
       <c r="J12">
-        <v>0.1838892080353745</v>
+        <v>0.1608765393978402</v>
       </c>
       <c r="K12">
-        <v>0.09942599291949072</v>
+        <v>0.09649995521513954</v>
       </c>
       <c r="L12">
-        <v>0.1129760085920566</v>
+        <v>0.07443139042331737</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01478597650856717</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1099897895132873</v>
       </c>
       <c r="O12">
-        <v>1.051721943973959</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.7618272585513353</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.059628750043949</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.6921523874831763</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.242866636746783</v>
+        <v>4.234089683530215</v>
       </c>
       <c r="C13">
-        <v>1.105591964925566</v>
+        <v>1.113553225640999</v>
       </c>
       <c r="D13">
-        <v>0.1779047302387653</v>
+        <v>0.1818128920962607</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3795926284681812</v>
+        <v>0.3586337568439646</v>
       </c>
       <c r="G13">
-        <v>0.1712177575572937</v>
+        <v>0.2024965969635275</v>
       </c>
       <c r="H13">
-        <v>0.1139002215717397</v>
+        <v>0.1137720487557345</v>
       </c>
       <c r="I13">
-        <v>0.007498626163040534</v>
+        <v>0.007265122500132115</v>
       </c>
       <c r="J13">
-        <v>0.1685443747633002</v>
+        <v>0.1551159060553999</v>
       </c>
       <c r="K13">
-        <v>0.09455257581472809</v>
+        <v>0.0937963481448455</v>
       </c>
       <c r="L13">
-        <v>0.1062238679962366</v>
+        <v>0.07396160696914533</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01296287204081148</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1038368380870391</v>
       </c>
       <c r="O13">
-        <v>0.932335338070672</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.6662899454813385</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.9378369269330236</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.6125452282181243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.22425718411057</v>
+        <v>4.217242672263296</v>
       </c>
       <c r="C14">
-        <v>1.093764535086905</v>
+        <v>1.095990426374442</v>
       </c>
       <c r="D14">
-        <v>0.1475995889176858</v>
+        <v>0.1499198319049171</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3355829641416577</v>
+        <v>0.3208640082655023</v>
       </c>
       <c r="G14">
-        <v>0.1507518752616335</v>
+        <v>0.1734241053964354</v>
       </c>
       <c r="H14">
-        <v>0.1630116350746249</v>
+        <v>0.1629111153813056</v>
       </c>
       <c r="I14">
-        <v>0.007083262068366736</v>
+        <v>0.006932721755786631</v>
       </c>
       <c r="J14">
-        <v>0.1586917621473205</v>
+        <v>0.1560809918149637</v>
       </c>
       <c r="K14">
-        <v>0.09359421889632435</v>
+        <v>0.09403911639310303</v>
       </c>
       <c r="L14">
-        <v>0.1185155476674247</v>
+        <v>0.07421755178110923</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01236686113774477</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1165086340024217</v>
       </c>
       <c r="O14">
-        <v>0.8401228054484733</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.6022103266328713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.8438636022735579</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.5640694605935295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.192469183276103</v>
+        <v>4.186148705101516</v>
       </c>
       <c r="C15">
-        <v>1.085829406917128</v>
+        <v>1.086847654911992</v>
       </c>
       <c r="D15">
-        <v>0.1403335715930183</v>
+        <v>0.1421215613791205</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3247246095232086</v>
+        <v>0.3122575061659134</v>
       </c>
       <c r="G15">
-        <v>0.145429848410501</v>
+        <v>0.1636985470894601</v>
       </c>
       <c r="H15">
-        <v>0.1754257742793328</v>
+        <v>0.1753370221554604</v>
       </c>
       <c r="I15">
-        <v>0.006957131979947739</v>
+        <v>0.006869249649120057</v>
       </c>
       <c r="J15">
-        <v>0.156461252675733</v>
+        <v>0.158417093903477</v>
       </c>
       <c r="K15">
-        <v>0.09414210694221037</v>
+        <v>0.09480473471974915</v>
       </c>
       <c r="L15">
-        <v>0.1235643913813149</v>
+        <v>0.07444806110209123</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01242653728060494</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1216729794663109</v>
       </c>
       <c r="O15">
-        <v>0.8131113860311245</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.5862220126480082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.8163536755136889</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.5539290560834473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.931705763844661</v>
+        <v>3.927701903012974</v>
       </c>
       <c r="C16">
-        <v>1.024602364038373</v>
+        <v>1.027050796774006</v>
       </c>
       <c r="D16">
-        <v>0.1371894366543742</v>
+        <v>0.1375365022623498</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3241288642748827</v>
+        <v>0.3183305896096655</v>
       </c>
       <c r="G16">
-        <v>0.1441096611257819</v>
+        <v>0.1434687006514537</v>
       </c>
       <c r="H16">
-        <v>0.1622504059247376</v>
+        <v>0.1622098838850263</v>
       </c>
       <c r="I16">
-        <v>0.005923482820810122</v>
+        <v>0.006035816813408701</v>
       </c>
       <c r="J16">
-        <v>0.1592946423711439</v>
+        <v>0.1801208997253489</v>
       </c>
       <c r="K16">
-        <v>0.1008469032956845</v>
+        <v>0.1011419899978582</v>
       </c>
       <c r="L16">
-        <v>0.1206649081956819</v>
+        <v>0.07608267322796869</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.0141670841481234</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.119160959792449</v>
       </c>
       <c r="O16">
-        <v>0.7662643821404984</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.5891624522954686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.7688028296153675</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.5748705630200845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.742233235947083</v>
+        <v>3.738962964914094</v>
       </c>
       <c r="C17">
-        <v>0.9842360093875868</v>
+        <v>0.9899762847954889</v>
       </c>
       <c r="D17">
-        <v>0.150191735055067</v>
+        <v>0.150209981433747</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.346519827171079</v>
+        <v>0.342403142625173</v>
       </c>
       <c r="G17">
-        <v>0.1538214130091973</v>
+        <v>0.1448779666824223</v>
       </c>
       <c r="H17">
-        <v>0.1242648378555771</v>
+        <v>0.1242425464350845</v>
       </c>
       <c r="I17">
-        <v>0.005399102908659081</v>
+        <v>0.005611110638506389</v>
       </c>
       <c r="J17">
-        <v>0.1666759086946143</v>
+        <v>0.196324533871632</v>
       </c>
       <c r="K17">
-        <v>0.1064663054155921</v>
+        <v>0.106180634366683</v>
       </c>
       <c r="L17">
-        <v>0.109224730287373</v>
+        <v>0.07763468536086537</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01571376075336395</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.1078602061360705</v>
       </c>
       <c r="O17">
-        <v>0.7785241351239591</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.6250912196846627</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.7814176741563443</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.6155634240248418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.594085127139692</v>
+        <v>3.590411182873197</v>
       </c>
       <c r="C18">
-        <v>0.9541082985905973</v>
+        <v>0.9661563281669601</v>
       </c>
       <c r="D18">
-        <v>0.1813949180062053</v>
+        <v>0.1816828709369247</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3945674632741358</v>
+        <v>0.3891683945893831</v>
       </c>
       <c r="G18">
-        <v>0.175688461861462</v>
+        <v>0.161694582740914</v>
       </c>
       <c r="H18">
-        <v>0.07141562441680094</v>
+        <v>0.07139540259451849</v>
       </c>
       <c r="I18">
-        <v>0.004959424363615739</v>
+        <v>0.005162635436417595</v>
       </c>
       <c r="J18">
-        <v>0.1795258492784768</v>
+        <v>0.212519768630429</v>
       </c>
       <c r="K18">
-        <v>0.1128056088872733</v>
+        <v>0.1115694675921168</v>
       </c>
       <c r="L18">
-        <v>0.1041740463892145</v>
+        <v>0.07962772061491963</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01748735876789898</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1026898044162077</v>
       </c>
       <c r="O18">
-        <v>0.8441871834965582</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.6982975856545579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.848461043063601</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.6857857444472586</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.490122928789276</v>
+        <v>3.485257253477812</v>
       </c>
       <c r="C19">
-        <v>0.9414548324658085</v>
+        <v>0.9620222870792645</v>
       </c>
       <c r="D19">
-        <v>0.2300731201747368</v>
+        <v>0.2311027028023744</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4618355898145765</v>
+        <v>0.452976090006338</v>
       </c>
       <c r="G19">
-        <v>0.2056461708660748</v>
+        <v>0.1879052016646767</v>
       </c>
       <c r="H19">
-        <v>0.02635148100898732</v>
+        <v>0.02631910510136493</v>
       </c>
       <c r="I19">
-        <v>0.005111512892018943</v>
+        <v>0.005337059101766961</v>
       </c>
       <c r="J19">
-        <v>0.1956022350507425</v>
+        <v>0.2285433516043085</v>
       </c>
       <c r="K19">
-        <v>0.1201816208589843</v>
+        <v>0.1175045764290958</v>
       </c>
       <c r="L19">
-        <v>0.1268893481488682</v>
+        <v>0.08198765556029874</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01959599363024633</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1249305115503603</v>
       </c>
       <c r="O19">
-        <v>0.9530156662746947</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7954645359192654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.9595036155003598</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0.7745966364380052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.513804521820475</v>
+        <v>3.505554354160154</v>
       </c>
       <c r="C20">
-        <v>0.9654526370977408</v>
+        <v>1.001061673190463</v>
       </c>
       <c r="D20">
-        <v>0.3251800743909712</v>
+        <v>0.3286351097233648</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5841276481647171</v>
+        <v>0.5647780433254326</v>
       </c>
       <c r="G20">
-        <v>0.2600864923913022</v>
+        <v>0.2434227349340077</v>
       </c>
       <c r="H20">
-        <v>0.001130068360938097</v>
+        <v>0.001032513408873559</v>
       </c>
       <c r="I20">
-        <v>0.006044309296391326</v>
+        <v>0.006168690905250074</v>
       </c>
       <c r="J20">
-        <v>0.2216303725061834</v>
+        <v>0.2426140903492069</v>
       </c>
       <c r="K20">
-        <v>0.1304142394235885</v>
+        <v>0.1243455706136789</v>
       </c>
       <c r="L20">
-        <v>0.2225003560077994</v>
+        <v>0.08436785590780271</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.02316973162537206</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2189755731215755</v>
       </c>
       <c r="O20">
-        <v>1.177800223477831</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.9655167348806089</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>1.188892831125102</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0.9193417254782332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.937514149851495</v>
+        <v>3.92411317526097</v>
       </c>
       <c r="C21">
-        <v>1.074039271189491</v>
+        <v>1.111566056938102</v>
       </c>
       <c r="D21">
-        <v>0.3639945017073387</v>
+        <v>0.3739518277778728</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6286878946500707</v>
+        <v>0.5857762291451465</v>
       </c>
       <c r="G21">
-        <v>0.2814938823150328</v>
+        <v>0.3163245459452497</v>
       </c>
       <c r="H21">
-        <v>0.002420819174787869</v>
+        <v>0.002169681156021341</v>
       </c>
       <c r="I21">
-        <v>0.008286443984511394</v>
+        <v>0.008032128845220754</v>
       </c>
       <c r="J21">
-        <v>0.2261211210583838</v>
+        <v>0.1858171356131137</v>
       </c>
       <c r="K21">
-        <v>0.1218718811657169</v>
+        <v>0.1120674458958764</v>
       </c>
       <c r="L21">
-        <v>0.2485679681699935</v>
+        <v>0.07885690417560109</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02197455619550936</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.243412073518094</v>
       </c>
       <c r="O21">
-        <v>1.339117117769163</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.020653734726977</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>1.35322737215769</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0.9158620407502269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.220106494774882</v>
+        <v>4.203239553117726</v>
       </c>
       <c r="C22">
-        <v>1.141346994813205</v>
+        <v>1.178744260537542</v>
       </c>
       <c r="D22">
-        <v>0.3845492842010572</v>
+        <v>0.3992385750621992</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6545334455878589</v>
+        <v>0.5950153551605126</v>
       </c>
       <c r="G22">
-        <v>0.2949203381669179</v>
+        <v>0.3710830004365704</v>
       </c>
       <c r="H22">
-        <v>0.003554184068940813</v>
+        <v>0.003173192334225639</v>
       </c>
       <c r="I22">
-        <v>0.009678237438382808</v>
+        <v>0.009060291427105405</v>
       </c>
       <c r="J22">
-        <v>0.2288352389656154</v>
+        <v>0.155599476413542</v>
       </c>
       <c r="K22">
-        <v>0.1165807862391279</v>
+        <v>0.104225340930336</v>
       </c>
       <c r="L22">
-        <v>0.2596655746892793</v>
+        <v>0.07563068360535752</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02139217568031349</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.2535129931896591</v>
       </c>
       <c r="O22">
-        <v>1.434497112770686</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.055021460953299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.450403308715792</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9089762351930659</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.069987392552491</v>
+        <v>4.055066653212066</v>
       </c>
       <c r="C23">
-        <v>1.10118277486913</v>
+        <v>1.139975745105971</v>
       </c>
       <c r="D23">
-        <v>0.3732157479991827</v>
+        <v>0.3846964035955551</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6423549169094827</v>
+        <v>0.5937139932592501</v>
       </c>
       <c r="G23">
-        <v>0.2890057707652218</v>
+        <v>0.3362821174662969</v>
       </c>
       <c r="H23">
-        <v>0.002926738444566812</v>
+        <v>0.002622270216418143</v>
       </c>
       <c r="I23">
-        <v>0.008649932984307718</v>
+        <v>0.008176648493066097</v>
       </c>
       <c r="J23">
-        <v>0.2280354172441648</v>
+        <v>0.1759105994637977</v>
       </c>
       <c r="K23">
-        <v>0.1199519134563953</v>
+        <v>0.1091585356656823</v>
       </c>
       <c r="L23">
-        <v>0.2539261484150401</v>
+        <v>0.07752947888680151</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02206157464643788</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.2483491767521286</v>
       </c>
       <c r="O23">
-        <v>1.382498448356799</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.040690435233614</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>1.397454730137397</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0.9215601747167312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.500220119277287</v>
+        <v>3.491860378971865</v>
       </c>
       <c r="C24">
-        <v>0.9565922224634562</v>
+        <v>0.9930022298756001</v>
       </c>
       <c r="D24">
-        <v>0.331083119035199</v>
+        <v>0.3346280777563493</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5950417833670159</v>
+        <v>0.5752087560713619</v>
       </c>
       <c r="G24">
-        <v>0.2657304473184681</v>
+        <v>0.248238554591488</v>
       </c>
       <c r="H24">
-        <v>0.001070818642178839</v>
+        <v>0.0009705961386623496</v>
       </c>
       <c r="I24">
-        <v>0.005604011453431923</v>
+        <v>0.005628879646637053</v>
       </c>
       <c r="J24">
-        <v>0.2246363906627593</v>
+        <v>0.2458751373891133</v>
       </c>
       <c r="K24">
-        <v>0.1326522004149489</v>
+        <v>0.1262097116913878</v>
       </c>
       <c r="L24">
-        <v>0.2319005685331064</v>
+        <v>0.08507568460514925</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02386006064418389</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2282739096988067</v>
       </c>
       <c r="O24">
-        <v>1.187714100092435</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.9837727814907282</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>1.1990956310716</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0.9363961760388122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.885068436604229</v>
+        <v>2.882047339950134</v>
       </c>
       <c r="C25">
-        <v>0.8016495945780377</v>
+        <v>0.821477641602371</v>
       </c>
       <c r="D25">
-        <v>0.2860098408603733</v>
+        <v>0.2882826934218627</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5470572191593703</v>
+        <v>0.5345095795310613</v>
       </c>
       <c r="G25">
-        <v>0.243060280011278</v>
+        <v>0.2232225918400417</v>
       </c>
       <c r="H25">
-        <v>7.517786226429735E-05</v>
+        <v>6.418526733908969E-05</v>
       </c>
       <c r="I25">
-        <v>0.003155362559418506</v>
+        <v>0.003450468891966096</v>
       </c>
       <c r="J25">
-        <v>0.2224449700344806</v>
+        <v>0.2512212849594846</v>
       </c>
       <c r="K25">
-        <v>0.1481121760153457</v>
+        <v>0.1421146313340929</v>
       </c>
       <c r="L25">
-        <v>0.2081147388102877</v>
+        <v>0.09328412779831563</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.02568188342514155</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2059427790406687</v>
       </c>
       <c r="O25">
-        <v>0.9781879787916381</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.9306032515781482</v>
+        <v>0.9858407478696236</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0.9004326108043301</v>
       </c>
     </row>
   </sheetData>
